--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="2220" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="7300" yWindow="1620" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>playerNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象被锁定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectIsLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +214,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="122">
+  <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -333,6 +341,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -346,7 +362,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="122">
+  <cellStyles count="130">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -410,6 +426,10 @@
     <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -466,6 +486,10 @@
     <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -918,7 +942,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -983,7 +1007,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
-      <c r="B6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>505</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="B7" s="3"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="1620" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6420" yWindow="1700" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -76,6 +76,44 @@
   </si>
   <si>
     <t>objectIsLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要重新登录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>reLoginNeeded</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家不存在于mongo数据库</t>
+  </si>
+  <si>
+    <t>playerNotExistInMongo</t>
+  </si>
+  <si>
+    <t>服务器维护中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverUnderMaintain</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAlreadyLogin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家已经登录</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="130">
+  <cellStyleXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -349,6 +387,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -362,7 +422,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="130">
+  <cellStyles count="152">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -430,6 +490,17 @@
     <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -490,6 +561,17 @@
     <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -939,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1008,29 +1090,69 @@
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>505</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>506</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
-      <c r="B7" s="3"/>
-    </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
-      <c r="B8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>507</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
-      <c r="B9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>508</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
-      <c r="B10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>509</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
-      <c r="B11" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>510</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="B12" s="3"/>
@@ -1181,6 +1303,12 @@
     </row>
     <row r="61" spans="2:2" ht="20" customHeight="1">
       <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="2:2" ht="20" customHeight="1">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="2:2" ht="20" customHeight="1">
+      <c r="B63" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1700" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="3380" yWindow="1440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -115,6 +115,224 @@
   <si>
     <t>玩家已经登录</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑不存在</t>
+  </si>
+  <si>
+    <t>buildingNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑正在升级</t>
+  </si>
+  <si>
+    <t>buildingUpgradingNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingLocationNotLegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑坑位不合法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造数量已达建造上限</t>
+  </si>
+  <si>
+    <t>buildingCountReachUpLimit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑已达到最高等级</t>
+  </si>
+  <si>
+    <t>buildingLevelReachUpLimit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石不足</t>
+  </si>
+  <si>
+    <t>gemNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有生产建筑才能转换</t>
+  </si>
+  <si>
+    <t>onlyProductionBuildingCanSwitch</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋数量过多</t>
+  </si>
+  <si>
+    <t>houseTooMuchMore</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体建筑必须大于等于1级</t>
+  </si>
+  <si>
+    <t>hostBuildingLevelMustBiggerThanOne</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋类型不存在</t>
+  </si>
+  <si>
+    <t>houseTypeNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋数量超过限制</t>
+  </si>
+  <si>
+    <t>houseCountTooMuchMore</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑周围不允许建造小屋</t>
+  </si>
+  <si>
+    <t>buildingNotAllowHouseCreate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋坑位不合法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>houseLocationNotLegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造小屋会造成可用城民小于0</t>
+  </si>
+  <si>
+    <t>noEnoughCitizenToCreateHouse</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋升级前置条件未满足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑升级前置条件未满足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingUpgradePrefixNotMatch</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>houseUpgradePrefixNotMatch</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>houseNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋正在升级</t>
+  </si>
+  <si>
+    <t>houseUpgradingNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋已达到最高等级</t>
+  </si>
+  <si>
+    <t>houseReachMaxLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级小屋会造成可用城民小于0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>noEnoughCitizenToUpgradeHouse</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家事件不存在</t>
+  </si>
+  <si>
+    <t>playerEventNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能进行免费加速</t>
+  </si>
+  <si>
+    <t>canNotFreeSpeedupNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑还未建造</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingNotBuild</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>同类型的材料正在制造</t>
+  </si>
+  <si>
+    <t>materialAsSameTypeIsMakeNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>同类型的材料制作完成后还未领取</t>
+  </si>
+  <si>
+    <t>materialMakeFinishedButNotTakeAway</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同类型的材料正在制造</t>
+  </si>
+  <si>
+    <t>materialAsDifferentTypeIsMakeNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料事件不存在或者正在制作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>materialEventNotExistOrIsMakeing</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有士兵正在被招募</t>
+  </si>
+  <si>
+    <t>soldiersAreRecruitingNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募数量超过单次招募上限</t>
+  </si>
+  <si>
+    <t>recruitTooMuchOnce</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵招募材料不足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierRecruitMaterialsNotEnough</t>
   </si>
 </sst>
 </file>
@@ -252,7 +470,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="152">
+  <cellStyleXfs count="404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -409,6 +627,258 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -422,7 +892,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="152">
+  <cellStyles count="404">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -501,6 +971,132 @@
     <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -572,6 +1168,132 @@
     <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1021,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1155,114 +1877,354 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="B12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>511</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="B13" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3">
+        <v>512</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
-      <c r="B14" s="3"/>
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3">
+        <v>513</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="B15" s="3"/>
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
+        <v>514</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" ht="20" customHeight="1">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" ht="20" customHeight="1">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="2:2" ht="20" customHeight="1">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" ht="20" customHeight="1">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="2:2" ht="20" customHeight="1">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="2:2" ht="20" customHeight="1">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:2" ht="20" customHeight="1">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="2:2" ht="20" customHeight="1">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="2:2" ht="20" customHeight="1">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" ht="20" customHeight="1">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" ht="20" customHeight="1">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" ht="20" customHeight="1">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" ht="20" customHeight="1">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" ht="20" customHeight="1">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" ht="20" customHeight="1">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" ht="20" customHeight="1">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" ht="20" customHeight="1">
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:2" ht="20" customHeight="1">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:2" ht="20" customHeight="1">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:2" ht="20" customHeight="1">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="2:2" ht="20" customHeight="1">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="2:2" ht="20" customHeight="1">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="2:2" ht="20" customHeight="1">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="2:2" ht="20" customHeight="1">
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="2:2" ht="20" customHeight="1">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:2" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3">
+        <v>515</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3">
+        <v>516</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3">
+        <v>517</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3">
+        <v>518</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3">
+        <v>519</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3">
+        <v>520</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3">
+        <v>521</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3">
+        <v>522</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3">
+        <v>523</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3">
+        <v>524</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3">
+        <v>525</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3">
+        <v>526</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3">
+        <v>527</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3">
+        <v>528</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3">
+        <v>529</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3">
+        <v>530</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3">
+        <v>531</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="3">
+        <v>532</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="3">
+        <v>533</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3">
+        <v>534</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3">
+        <v>535</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3">
+        <v>536</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="3">
+        <v>537</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="3">
+        <v>538</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="3">
+        <v>539</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="3">
+        <v>540</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" ht="20" customHeight="1">
+    <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" ht="20" customHeight="1">
+    <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" ht="20" customHeight="1">
+    <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" ht="20" customHeight="1">
+    <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" ht="20" customHeight="1">
+    <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" ht="20" customHeight="1">
+    <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="2:2" ht="20" customHeight="1">
@@ -1306,9 +2268,6 @@
     </row>
     <row r="62" spans="2:2" ht="20" customHeight="1">
       <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="2:2" ht="20" customHeight="1">
-      <c r="B63" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="1440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6720" yWindow="2500" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -333,6 +333,201 @@
   </si>
   <si>
     <t>soldierRecruitMaterialsNotEnough</t>
+  </si>
+  <si>
+    <t>dragonEquipmentEventsExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙装备制造事件已存在</t>
+  </si>
+  <si>
+    <t>制作龙装备材料不足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonEquipmentMaterialsNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵不存在或士兵数量不合法</t>
+  </si>
+  <si>
+    <t>soldierNotExistOrCountNotLegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierTreatEventExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵治疗事件已存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋早已成功孵化</t>
+  </si>
+  <si>
+    <t>dragonEggAlreadyHatched</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋孵化事件已存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonEggHatchEventExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙还未孵化</t>
+  </si>
+  <si>
+    <t>dragonNotHatched</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备与龙的星级不匹配</t>
+  </si>
+  <si>
+    <t>dragonEquipmentNotMatchForTheDragon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙装备数量不足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonEquipmentNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙身上已经存在相同类型的装备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonAlreadyHasTheSameCategory</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此分类还没有配置装备</t>
+  </si>
+  <si>
+    <t>dragonDoNotHasThisEquipment</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备已到最高星级</t>
+  </si>
+  <si>
+    <t>dragonEquipmentReachMaxStar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>被牺牲的装备不存在或数量不足</t>
+  </si>
+  <si>
+    <t>dragonEquipmentsNotExistOrNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙技能不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonSkillNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此龙技能还未解锁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonSkillIsLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙技能已达最高等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonSkillReachMaxLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄之血不足</t>
+  </si>
+  <si>
+    <t>heroBloodNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙的星级已达最高</t>
+  </si>
+  <si>
+    <t>dragonReachMaxStar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙的等级未达到晋级要求</t>
+  </si>
+  <si>
+    <t>龙的装备未达到晋级要求</t>
+  </si>
+  <si>
+    <t>dragonUpgradeStarFailedForLevelNotLegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonUpgradeStarFailedForEquipmentNotLegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyQuestNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务已达最高星级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyQuestReachMaxStar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务事件已存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyQuestEventExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务事件不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyQuestEventNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任务事件还未完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyQuestEventNotFinished</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件不存在</t>
+  </si>
+  <si>
+    <t>mailNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -470,7 +665,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="404">
+  <cellStyleXfs count="656">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -879,6 +1074,258 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -892,7 +1339,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="404">
+  <cellStyles count="656">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1097,6 +1544,132 @@
     <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1294,6 +1867,132 @@
     <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1743,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2207,67 +2906,290 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
-      <c r="B42" s="3"/>
+      <c r="A42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="3">
+        <v>541</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
-      <c r="B43" s="3"/>
+      <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="3">
+        <v>542</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
-      <c r="B44" s="3"/>
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="3">
+        <v>543</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
-      <c r="B45" s="3"/>
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="3">
+        <v>544</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
-      <c r="B46" s="3"/>
+      <c r="A46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="3">
+        <v>545</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
-      <c r="B47" s="3"/>
+      <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="3">
+        <v>546</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="2:2" ht="20" customHeight="1">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2" ht="20" customHeight="1">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2" ht="20" customHeight="1">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2" ht="20" customHeight="1">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2" ht="20" customHeight="1">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:2" ht="20" customHeight="1">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="2:2" ht="20" customHeight="1">
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="2:2" ht="20" customHeight="1">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="2:2" ht="20" customHeight="1">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:2" ht="20" customHeight="1">
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="2:2" ht="20" customHeight="1">
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="2:2" ht="20" customHeight="1">
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="2:2" ht="20" customHeight="1">
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="2:2" ht="20" customHeight="1">
-      <c r="B62" s="3"/>
+      <c r="A48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="3">
+        <v>547</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="3">
+        <v>548</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="3">
+        <v>549</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="3">
+        <v>550</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="3">
+        <v>551</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="20" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="3">
+        <v>552</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="3">
+        <v>553</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="20" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="3">
+        <v>554</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="20" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="3">
+        <v>555</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="20" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="3">
+        <v>556</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="20" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="3">
+        <v>557</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="20" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="3">
+        <v>558</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="20" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="3">
+        <v>559</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="20" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="3">
+        <v>560</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="20" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="3">
+        <v>561</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="20" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="1">
+        <v>562</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="20" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1">
+        <v>563</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="20" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1">
+        <v>564</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="20" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="1">
+        <v>565</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="20" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="1">
+        <v>566</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="2500" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4260" yWindow="1720" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -527,6 +527,91 @@
   </si>
   <si>
     <t>mailNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>战报不存在</t>
+  </si>
+  <si>
+    <t>reportNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙未处于空闲状态</t>
+  </si>
+  <si>
+    <t>dragonIsNotFree</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选择的龙已经阵亡</t>
+  </si>
+  <si>
+    <t>dragonSelectedIsDead</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有龙驻防在城墙</t>
+  </si>
+  <si>
+    <t>noDragonInDefenceStatus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有足够的出售队列</t>
+  </si>
+  <si>
+    <t>sellQueueNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家资源不足</t>
+  </si>
+  <si>
+    <t>resourceNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>马车数量不足</t>
+  </si>
+  <si>
+    <t>cartNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品不存在</t>
+  </si>
+  <si>
+    <t>sellItemNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>银币不足</t>
+  </si>
+  <si>
+    <t>coinNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品还未卖出</t>
+  </si>
+  <si>
+    <t>sellItemNotSold</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>您未出售此商品</t>
+  </si>
+  <si>
+    <t>sellItemNotBelongsToYou</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品已经售出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellItemAlreadySold</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +750,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="656">
+  <cellStyleXfs count="750">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1326,6 +1411,100 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1339,7 +1518,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="656">
+  <cellStyles count="750">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1670,6 +1849,53 @@
     <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1993,6 +2219,53 @@
     <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2442,10 +2715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3191,6 +3464,138 @@
         <v>133</v>
       </c>
     </row>
+    <row r="68" spans="1:3" ht="20" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="1">
+        <v>567</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="20" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="1">
+        <v>568</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="20" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="1">
+        <v>569</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="20" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="1">
+        <v>570</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="20" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="1">
+        <v>571</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="20" customHeight="1">
+      <c r="A73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="1">
+        <v>572</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="20" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="1">
+        <v>573</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="20" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="1">
+        <v>574</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="20" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="1">
+        <v>575</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="20" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="1">
+        <v>576</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="20" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="1">
+        <v>577</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="20" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="1">
+        <v>578</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>buildingUpgradePrefixNotMatch</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>houseUpgradePrefixNotMatch</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -612,6 +608,263 @@
   </si>
   <si>
     <t>sellItemAlreadySold</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技已达最高等级</t>
+  </si>
+  <si>
+    <t>techReachMaxLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置科技条件不满足</t>
+  </si>
+  <si>
+    <t>techUpgradePreConditionNotMatch</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingUpgradePreConditionNotMatch</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选择的科技正在升级</t>
+  </si>
+  <si>
+    <t>士兵已达最高星级</t>
+  </si>
+  <si>
+    <t>soldierReachMaxStar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>techIsUpgradingNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技点不足</t>
+  </si>
+  <si>
+    <t>techPointNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此兵种正在升级中</t>
+  </si>
+  <si>
+    <t>soldierIsUpgradingNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此道具未出售</t>
+  </si>
+  <si>
+    <t>itemNotSell</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具不存在</t>
+  </si>
+  <si>
+    <t>itemNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋当前不能被移动</t>
+  </si>
+  <si>
+    <t>houseCanNotBeMovedNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能修改为相同的玩家名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNameCanNotBeTheSame</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家名称已被其他玩家占用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNameAlreadyUsed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能修改为相同的城市名称</t>
+  </si>
+  <si>
+    <t>cityNameCanNotBeTheSame</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家未加入联盟</t>
+  </si>
+  <si>
+    <t>playerNotJoinAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军事件不存在</t>
+  </si>
+  <si>
+    <t>marchEventNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟正处于战争期</t>
+  </si>
+  <si>
+    <t>allianceInFightStatus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家有部队正在行军中</t>
+  </si>
+  <si>
+    <t>playerHasMarchEvent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能移动到目标点位</t>
+  </si>
+  <si>
+    <t>canNotMoveToTargetPlace</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此道具不允许直接使用</t>
+  </si>
+  <si>
+    <t>itemCanNotBeUsedDirectly</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌币不足</t>
+  </si>
+  <si>
+    <t>casinoTokenNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日登陆奖励已领取</t>
+  </si>
+  <si>
+    <t>loginRewardAlreadyGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线时间不足,不能领取</t>
+  </si>
+  <si>
+    <t>onlineTimeNotEough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此时间节点的在线奖励已经领取</t>
+  </si>
+  <si>
+    <t>onlineTimeRewardAlreadyGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日王城援军奖励已领取</t>
+  </si>
+  <si>
+    <t>wonderAssistanceRewardAlreadyGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲级奖励时间已过</t>
+  </si>
+  <si>
+    <t>levelUpRewardExpired</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前等级的冲级奖励已经领取</t>
+  </si>
+  <si>
+    <t>levelUpRewardAlreadyGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家城堡等级不足以领取当前冲级奖励</t>
+  </si>
+  <si>
+    <t>levelUpRewardCanNotBeGetForCastleLevelNotMatch</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家还未进行首次充值</t>
+  </si>
+  <si>
+    <t>首次充值奖励已经领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstIAPNotHappen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstIAPRewardAlreadyGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任务奖励已经领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyTaskRewardAlreadyGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任务还未完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyTaskNotFinished</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长任务不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>growUpTaskNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置任务奖励未领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>growUpTaskRewardCanNotBeGetForPreTaskRewardNotGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复的订单号</t>
+  </si>
+  <si>
+    <t>订单商品不存在</t>
+  </si>
+  <si>
+    <t>iapProductNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iapValidateFaild</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicateIAPTransactionId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单验证失败</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +1003,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="750">
+  <cellStyleXfs count="1046">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1505,6 +1758,302 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1518,7 +2067,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="750">
+  <cellStyles count="1046">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1896,6 +2445,154 @@
     <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="842" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="844" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="846" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="848" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="850" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="852" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="854" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="856" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="858" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="860" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="862" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="864" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="866" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="868" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="870" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="872" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="874" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="876" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="878" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="880" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="918" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="920" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="922" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="924" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="926" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="928" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="930" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="932" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="934" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="936" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="938" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="940" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="942" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="944" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="946" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="948" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="950" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="952" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="954" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="956" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="958" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="960" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="962" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="964" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="966" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="968" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="970" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="972" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="974" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="976" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="978" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="980" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="982" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="984" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="986" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="988" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="990" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="992" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="994" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="996" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="998" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1000" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1002" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1004" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1006" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1008" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1010" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1012" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1014" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1016" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1018" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1020" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1022" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1024" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1026" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1028" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1030" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1032" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1034" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1036" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1038" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1040" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1042" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1044" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2266,6 +2963,154 @@
     <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="843" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="845" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="847" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="849" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="851" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="853" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="855" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="857" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="859" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="861" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="863" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="871" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="873" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="875" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="877" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="879" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="881" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="919" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="921" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="923" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="925" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="927" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="929" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="931" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="933" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="935" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="937" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="939" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="941" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="943" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="945" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="947" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="949" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="951" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="953" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="955" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="957" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="959" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="961" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="963" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="965" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="967" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="969" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="971" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="973" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="975" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="977" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="979" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="981" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="983" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="985" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="987" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="989" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="991" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="993" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="995" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="997" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="999" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1001" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1003" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1005" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1007" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1009" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1011" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1013" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1015" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1017" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1019" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1021" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1023" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1025" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1027" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1029" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1031" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1033" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1035" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1037" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1039" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1041" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1043" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1045" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2715,10 +3560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2905,7 +3750,7 @@
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="B17" s="3">
         <v>516</v>
@@ -3015,7 +3860,7 @@
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3">
         <v>526</v>
@@ -3026,574 +3871,959 @@
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3">
         <v>527</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3">
         <v>528</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3">
         <v>529</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3">
         <v>530</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3">
         <v>531</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3">
         <v>532</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3">
         <v>533</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3">
         <v>534</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3">
         <v>535</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3">
         <v>536</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="3">
         <v>537</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" s="3">
         <v>539</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3">
         <v>540</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="3">
         <v>541</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="3">
         <v>542</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="3">
         <v>543</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="3">
         <v>544</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3">
         <v>545</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="3">
         <v>546</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="3">
         <v>547</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="3">
         <v>548</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" s="3">
         <v>549</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="3">
         <v>550</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="3">
         <v>551</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="3">
         <v>552</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" s="3">
         <v>553</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" s="3">
         <v>554</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="3">
         <v>555</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57" s="3">
         <v>556</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="3">
         <v>557</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" s="3">
         <v>558</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" s="3">
         <v>559</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" s="3">
         <v>560</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" s="3">
         <v>561</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" s="1">
         <v>562</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B64" s="1">
         <v>563</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1">
         <v>564</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="1">
         <v>565</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B67" s="1">
         <v>566</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B68" s="1">
         <v>567</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B69" s="1">
         <v>568</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70" s="1">
         <v>569</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B71" s="1">
         <v>570</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" s="1">
         <v>571</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73" s="1">
         <v>572</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" s="1">
         <v>573</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" s="1">
         <v>574</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="1">
         <v>575</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" s="1">
         <v>576</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" s="1">
         <v>577</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79" s="1">
         <v>578</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="20" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" s="1">
+        <v>579</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="20" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="1">
+        <v>580</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="20" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="1">
+        <v>581</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="20" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="1">
+        <v>582</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="20" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="1">
+        <v>583</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="20" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="1">
+        <v>584</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="20" customHeight="1">
+      <c r="A86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="1">
+        <v>585</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="20" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="1">
+        <v>586</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="20" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="1">
+        <v>587</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="20" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="1">
+        <v>588</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="20" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="1">
+        <v>589</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="20" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="1">
+        <v>590</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="20" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="1">
+        <v>591</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="20" customHeight="1">
+      <c r="A93" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="1">
+        <v>592</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="20" customHeight="1">
+      <c r="A94" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="1">
+        <v>593</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="20" customHeight="1">
+      <c r="A95" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="1">
+        <v>594</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="20" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="1">
+        <v>595</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="20" customHeight="1">
+      <c r="A97" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="1">
+        <v>596</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="20" customHeight="1">
+      <c r="A98" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="1">
+        <v>597</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="20" customHeight="1">
+      <c r="A99" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="1">
+        <v>598</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="20" customHeight="1">
+      <c r="A100" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="1">
+        <v>599</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="20" customHeight="1">
+      <c r="A101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="1">
+        <v>600</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="20" customHeight="1">
+      <c r="A102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="1">
+        <v>601</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="20" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="1">
+        <v>602</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="20" customHeight="1">
+      <c r="A104" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="1">
+        <v>603</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="20" customHeight="1">
+      <c r="A105" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="1">
+        <v>604</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="20" customHeight="1">
+      <c r="A106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="1">
+        <v>605</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="20" customHeight="1">
+      <c r="A107" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="1">
+        <v>606</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="20" customHeight="1">
+      <c r="A108" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="1">
+        <v>607</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="20" customHeight="1">
+      <c r="A109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="1">
+        <v>608</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="20" customHeight="1">
+      <c r="A110" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="1">
+        <v>609</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="20" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="1">
+        <v>610</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="20" customHeight="1">
+      <c r="A112" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" s="1">
+        <v>611</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="20" customHeight="1">
+      <c r="A113" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="1">
+        <v>612</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="20" customHeight="1">
+      <c r="A114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="1">
+        <v>613</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1720" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5520" yWindow="840" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -865,6 +865,70 @@
   </si>
   <si>
     <t>订单验证失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家已加入了联盟</t>
+  </si>
+  <si>
+    <t>playerAlreadyJoinAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟名称已经存在</t>
+  </si>
+  <si>
+    <t>allianceNameExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟标签已经存在</t>
+  </si>
+  <si>
+    <t>allianceTagExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceOperationRightsIllegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟操作权限不足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟荣耀值不足</t>
+  </si>
+  <si>
+    <t>allianceHonourNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟没有此玩家</t>
+  </si>
+  <si>
+    <t>allianceDoNotHasThisMember</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟正在战争准备期或战争期,不能将玩家踢出联盟</t>
+  </si>
+  <si>
+    <t>allianceInFightStatusCanNotKickMemberOff</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能将职级高于或等于自己的玩家踢出联盟</t>
+  </si>
+  <si>
+    <t>canNotKickAllianceMemberOffForTitleIsUpperThanMe</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>别逗了,你是不盟主好么</t>
+  </si>
+  <si>
+    <t>youAreNotTheAllianceArchon</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1003,7 +1067,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1046">
+  <cellStyleXfs count="1118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2054,6 +2118,78 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2067,7 +2203,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1046">
+  <cellStyles count="1118">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2593,6 +2729,42 @@
     <cellStyle name="超链接" xfId="1040" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1042" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1044" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1046" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1048" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1050" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1052" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1054" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1056" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1058" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1060" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1062" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1064" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1066" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1068" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1070" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1072" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1074" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1076" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1078" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1080" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1082" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1084" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1086" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1088" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1090" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1092" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1094" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1096" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1098" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1116" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3111,6 +3283,42 @@
     <cellStyle name="访问过的超链接" xfId="1041" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1043" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1045" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1047" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1049" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1051" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1053" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1055" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1057" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1059" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1061" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1063" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1065" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1067" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1069" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1071" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1073" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1075" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1077" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1079" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1081" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1083" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1085" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1087" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1089" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1091" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1093" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1095" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1097" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1099" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1117" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3560,10 +3768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4826,6 +5034,105 @@
         <v>228</v>
       </c>
     </row>
+    <row r="115" spans="1:3" ht="20" customHeight="1">
+      <c r="A115" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="1">
+        <v>614</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="20" customHeight="1">
+      <c r="A116" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" s="1">
+        <v>615</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="20" customHeight="1">
+      <c r="A117" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" s="1">
+        <v>616</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="20" customHeight="1">
+      <c r="A118" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" s="1">
+        <v>617</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="20" customHeight="1">
+      <c r="A119" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" s="1">
+        <v>618</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="20" customHeight="1">
+      <c r="A120" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" s="1">
+        <v>619</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="20" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="1">
+        <v>620</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="20" customHeight="1">
+      <c r="A122" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" s="1">
+        <v>621</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="20" customHeight="1">
+      <c r="A123" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" s="1">
+        <v>622</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -929,6 +929,129 @@
   </si>
   <si>
     <t>youAreNotTheAllianceArchon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>别逗了,仅当联盟成员为空时,盟主才能退出联盟</t>
+  </si>
+  <si>
+    <t>allianceArchonCanNotQuitAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟正在战争准备期或战争期,不能退出联盟</t>
+  </si>
+  <si>
+    <t>allianceInFightStatusCanNotQuitAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟不允许直接加入</t>
+  </si>
+  <si>
+    <t>allianceDoNotAllowJoinDirectly</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟申请已满,请撤消部分申请后再来申请</t>
+  </si>
+  <si>
+    <t>对此联盟的申请已发出,请耐心等候审核</t>
+  </si>
+  <si>
+    <t>此联盟的申请信息已满,请等候其处理后再进行申请</t>
+  </si>
+  <si>
+    <t>joinAllianceRequestIsFull</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinTheAllianceRequestAlreadySend</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceJoinRequestMessagesIsFull</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinAllianceRequestNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟申请事件不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家已经取消对此联盟的申请</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerCancelTheJoinRequestToTheAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此玩家已被邀请加入我方联盟,请等候其处理</t>
+  </si>
+  <si>
+    <t>inviteRequestAlreadySend</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此玩家的邀请信息已满,请等候其处理后再进行邀请</t>
+  </si>
+  <si>
+    <t>inviteRequestMessageIsFullForThisPlayer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟邀请事件不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceInviteEventNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家已经是盟主了</t>
+  </si>
+  <si>
+    <t>playerAlreadyTheAllianceArchon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>盟主连续7天不登陆时才能购买盟主职位</t>
+  </si>
+  <si>
+    <t>onlyAllianceArchonMoreThanSevenDaysNotOnLinePlayerCanBuyArchonTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此事件已经发送了加速请求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedupRequestAlreadySendForThisEvent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助事件不存在</t>
+  </si>
+  <si>
+    <t>allianceHelpEventNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能帮助自己加速建造</t>
+  </si>
+  <si>
+    <t>canNotHelpSelfSpeedup</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>您已经帮助过此事件了</t>
+  </si>
+  <si>
+    <t>youAlreadyHelpedTheEvent</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1190,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1118">
+  <cellStyleXfs count="1262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2190,6 +2313,150 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2203,7 +2470,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1118">
+  <cellStyles count="1262">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2765,6 +3032,78 @@
     <cellStyle name="超链接" xfId="1112" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1114" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1260" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3319,6 +3658,78 @@
     <cellStyle name="访问过的超链接" xfId="1113" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1115" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1261" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3768,10 +4179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5133,6 +5544,193 @@
         <v>245</v>
       </c>
     </row>
+    <row r="124" spans="1:3" ht="20" customHeight="1">
+      <c r="A124" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" s="1">
+        <v>623</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="20" customHeight="1">
+      <c r="A125" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B125" s="1">
+        <v>624</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="20" customHeight="1">
+      <c r="A126" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" s="1">
+        <v>625</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="20" customHeight="1">
+      <c r="A127" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B127" s="1">
+        <v>626</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="20" customHeight="1">
+      <c r="A128" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" s="1">
+        <v>627</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="20" customHeight="1">
+      <c r="A129" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" s="1">
+        <v>628</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="20" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" s="1">
+        <v>629</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="20" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" s="1">
+        <v>630</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="20" customHeight="1">
+      <c r="A132" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" s="1">
+        <v>631</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="20" customHeight="1">
+      <c r="A133" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133" s="1">
+        <v>632</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="20" customHeight="1">
+      <c r="A134" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B134" s="1">
+        <v>633</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="20" customHeight="1">
+      <c r="A135" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" s="1">
+        <v>634</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="20" customHeight="1">
+      <c r="A136" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" s="1">
+        <v>635</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="20" customHeight="1">
+      <c r="A137" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137" s="1">
+        <v>636</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="20" customHeight="1">
+      <c r="A138" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" s="1">
+        <v>637</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="20" customHeight="1">
+      <c r="A139" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" s="1">
+        <v>638</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="20" customHeight="1">
+      <c r="A140" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" s="1">
+        <v>639</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="840" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5380" yWindow="2240" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1052,6 +1052,124 @@
   </si>
   <si>
     <t>youAlreadyHelpedTheEvent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟建筑已达到最高等级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceBuildingReachMaxLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlyAllianceDecorateBuildingCanBeDistroy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能拆除联盟装饰物</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此联盟事件已经激活</t>
+  </si>
+  <si>
+    <t>theAllianceShrineEventAlreadyActived</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟感知力不足</t>
+  </si>
+  <si>
+    <t>alliancePerceptionNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选择的龙领导力不足</t>
+  </si>
+  <si>
+    <t>dragonLeaderShipNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有空闲的行军队列</t>
+  </si>
+  <si>
+    <t>noFreeMarchQueue</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrineStageEventNotFound</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡激活事件不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此联盟圣地关卡还未解锁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theShrineStageIsLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家已经对此关卡派出了部队</t>
+  </si>
+  <si>
+    <t>youHadSendTroopToTheShrineStage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟正处于战争准备期或战争期</t>
+  </si>
+  <si>
+    <t>allianceInFightStatus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经发送过开战请求</t>
+  </si>
+  <si>
+    <t>alreadySendAllianceFightRequest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>未能找到战力相匹配的联盟</t>
+  </si>
+  <si>
+    <t>canNotFindAllianceToFight</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战报不存在</t>
+  </si>
+  <si>
+    <t>allianceFightReportNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战胜利方不能发起复仇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>winnerOfAllianceFightCanNotRevenge</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightRevengeTimeExpired</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过最长复仇期限</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标联盟未处于和平期,不能发起复仇</t>
+  </si>
+  <si>
+    <t>targetAllianceNotInPeaceStatus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1190,7 +1308,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1262">
+  <cellStyleXfs count="1414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2457,6 +2575,158 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2470,7 +2740,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1262">
+  <cellStyles count="1414">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3104,6 +3374,82 @@
     <cellStyle name="超链接" xfId="1256" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1258" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1412" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3730,6 +4076,82 @@
     <cellStyle name="访问过的超链接" xfId="1257" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1259" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1413" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4179,10 +4601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5731,6 +6153,182 @@
         <v>279</v>
       </c>
     </row>
+    <row r="141" spans="1:3" ht="20" customHeight="1">
+      <c r="A141" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B141" s="1">
+        <v>640</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="20" customHeight="1">
+      <c r="A142" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" s="1">
+        <v>641</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="20" customHeight="1">
+      <c r="A143" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143" s="1">
+        <v>642</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="20" customHeight="1">
+      <c r="A144" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B144" s="1">
+        <v>643</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="20" customHeight="1">
+      <c r="A145" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145" s="1">
+        <v>644</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="20" customHeight="1">
+      <c r="A146" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146" s="1">
+        <v>645</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="20" customHeight="1">
+      <c r="A147" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" s="1">
+        <v>646</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="20" customHeight="1">
+      <c r="A148" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B148" s="1">
+        <v>647</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="20" customHeight="1">
+      <c r="A149" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B149" s="1">
+        <v>648</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="20" customHeight="1">
+      <c r="A150" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B150" s="1">
+        <v>649</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="20" customHeight="1">
+      <c r="A151" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B151" s="1">
+        <v>650</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="20" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B152" s="1">
+        <v>651</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="20" customHeight="1">
+      <c r="A153" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B153" s="1">
+        <v>652</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="20" customHeight="1">
+      <c r="A154" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B154" s="1">
+        <v>653</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="20" customHeight="1">
+      <c r="A155" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B155" s="1">
+        <v>654</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="20" customHeight="1">
+      <c r="A156" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B156" s="1">
+        <v>655</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="2240" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5960" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1170,6 +1170,126 @@
   </si>
   <si>
     <t>targetAllianceNotInPeaceStatus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家已经对目标玩家派出了协防部队</t>
+  </si>
+  <si>
+    <t>playerAlreadySendHelpDefenceTroopToTargetPlayer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家协防部队数量已达最大</t>
+  </si>
+  <si>
+    <t>targetPlayersHelpDefenceTroopsCountReachMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家没有协防部队驻扎在目标玩家城市</t>
+  </si>
+  <si>
+    <t>noHelpDefenceTroopInTargetPlayerCity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟未处于战争期</t>
+  </si>
+  <si>
+    <t>allianceNotInFightStatus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家不在敌对联盟中</t>
+  </si>
+  <si>
+    <t>playerNotInEnemyAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家处于保护状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerInProtectStatus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标联盟非当前匹配的敌对联盟</t>
+  </si>
+  <si>
+    <t>targetAllianceNotTheEnemyAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落不存在</t>
+  </si>
+  <si>
+    <t>villageNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落采集事件不存在</t>
+  </si>
+  <si>
+    <t>villageCollectEventNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有此玩家的协防部队</t>
+  </si>
+  <si>
+    <t>noHelpDefenceTroopByThePlayer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此道具未在联盟商店出售</t>
+  </si>
+  <si>
+    <t>theItemNotSellInAllianceShop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通道具不需要进货补充</t>
+  </si>
+  <si>
+    <t>normalItemsNotNeedToAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家级别不足,不能购买高级道具</t>
+  </si>
+  <si>
+    <t>playerLevelNotEoughCanNotBuyAdvancedItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具数量不足</t>
+  </si>
+  <si>
+    <t>itemCountNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家忠诚值不足</t>
+  </si>
+  <si>
+    <t>playerLoyaltyNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟事件不存在</t>
+  </si>
+  <si>
+    <t>allianceEventNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法的联盟状态</t>
+  </si>
+  <si>
+    <t>illegalAllianceStatus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1308,7 +1428,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1414">
+  <cellStyleXfs count="1552">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2727,6 +2847,144 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2740,7 +2998,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1414">
+  <cellStyles count="1552">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3450,6 +3708,75 @@
     <cellStyle name="超链接" xfId="1408" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1410" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1542" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1544" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1546" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1548" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1550" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4152,6 +4479,75 @@
     <cellStyle name="访问过的超链接" xfId="1409" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1411" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1543" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1545" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1547" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1549" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1551" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4601,10 +4997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6329,6 +6725,193 @@
         <v>311</v>
       </c>
     </row>
+    <row r="157" spans="1:3" ht="20" customHeight="1">
+      <c r="A157" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B157" s="1">
+        <v>656</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="20" customHeight="1">
+      <c r="A158" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B158" s="1">
+        <v>657</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="20" customHeight="1">
+      <c r="A159" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B159" s="1">
+        <v>658</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="20" customHeight="1">
+      <c r="A160" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B160" s="1">
+        <v>659</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="20" customHeight="1">
+      <c r="A161" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B161" s="1">
+        <v>660</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="20" customHeight="1">
+      <c r="A162" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B162" s="1">
+        <v>661</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="20" customHeight="1">
+      <c r="A163" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B163" s="1">
+        <v>662</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="20" customHeight="1">
+      <c r="A164" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B164" s="1">
+        <v>663</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="20" customHeight="1">
+      <c r="A165" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B165" s="1">
+        <v>664</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="20" customHeight="1">
+      <c r="A166" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B166" s="1">
+        <v>665</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="20" customHeight="1">
+      <c r="A167" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" s="1">
+        <v>666</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="20" customHeight="1">
+      <c r="A168" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B168" s="1">
+        <v>667</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="20" customHeight="1">
+      <c r="A169" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B169" s="1">
+        <v>668</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="20" customHeight="1">
+      <c r="A170" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170" s="1">
+        <v>669</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="20" customHeight="1">
+      <c r="A171" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B171" s="1">
+        <v>670</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="20" customHeight="1">
+      <c r="A172" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B172" s="1">
+        <v>671</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="20" customHeight="1">
+      <c r="A173" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173" s="1">
+        <v>672</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5620" yWindow="1580" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1290,6 +1290,14 @@
   </si>
   <si>
     <t>illegalAllianceStatus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号GameCenter账号已经绑定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAlreadyBindGCAccountId</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1428,7 +1436,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1552">
+  <cellStyleXfs count="1568">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2985,6 +2993,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2998,7 +3022,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1552">
+  <cellStyles count="1568">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3777,6 +3801,14 @@
     <cellStyle name="超链接" xfId="1546" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1548" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1550" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1552" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1554" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1556" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1558" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1560" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1562" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1564" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1566" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4548,6 +4580,14 @@
     <cellStyle name="访问过的超链接" xfId="1547" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1549" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1551" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1553" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1555" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1557" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1559" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1561" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1563" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1565" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1567" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4997,10 +5037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6912,6 +6952,17 @@
         <v>345</v>
       </c>
     </row>
+    <row r="174" spans="1:3" ht="20" customHeight="1">
+      <c r="A174" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B174" s="1">
+        <v>673</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1297,7 +1297,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>playerAlreadyBindGCAccountId</t>
+    <t>此GameCenter账号已有玩家数据</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此GameCenter账号下无玩家数据</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAlreadyBindGCAId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCIdAlreadyHasDatas</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCAccountDoNotHasData</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1436,7 +1452,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1568">
+  <cellStyleXfs count="1594">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3009,6 +3025,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3022,7 +3064,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1568">
+  <cellStyles count="1594">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3809,6 +3851,19 @@
     <cellStyle name="超链接" xfId="1562" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1564" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1566" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1568" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1592" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4588,6 +4643,19 @@
     <cellStyle name="访问过的超链接" xfId="1563" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1565" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1567" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1569" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1593" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5037,10 +5105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6954,13 +7022,35 @@
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B174" s="1">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="20" customHeight="1">
+      <c r="A175" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B175" s="1">
+        <v>674</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="20" customHeight="1">
+      <c r="A176" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B176" s="1">
+        <v>675</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1297,23 +1297,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>此GameCenter账号已有玩家数据</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>此GameCenter账号下无玩家数据</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>playerAlreadyBindGCAId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCIdAlreadyHasDatas</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCAccountDoNotHasData</t>
+    <t>userAlreadyBindGCAId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCIdAlreadyBindedByOtherUser</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCAccountIsNotBindedByOtherUser</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此GameCenter账号未被其他玩家绑定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此GameCenter账号已被其他玩家绑定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前玩家还未绑定GameCenter账号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theUserDoNotBindGCId</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1452,7 +1460,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1594">
+  <cellStyleXfs count="1630">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3051,6 +3059,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3064,7 +3108,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1594">
+  <cellStyles count="1630">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3864,6 +3908,24 @@
     <cellStyle name="超链接" xfId="1588" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1590" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1628" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4656,6 +4718,24 @@
     <cellStyle name="访问过的超链接" xfId="1589" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1591" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1629" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5105,10 +5185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7022,7 +7102,7 @@
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B174" s="1">
         <v>673</v>
@@ -7033,24 +7113,35 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B175" s="1">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B176" s="1">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="20" customHeight="1">
+      <c r="A177" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B177" s="1">
+        <v>676</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1305,10 +1305,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>theGCAccountIsNotBindedByOtherUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此GameCenter账号未被其他玩家绑定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1322,6 +1318,18 @@
   </si>
   <si>
     <t>theUserDoNotBindGCId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此GameCenter账号已绑定当前玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCIdIsNotBindedByOtherUser</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCIdAlreadyBindedByCurrentUser</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1460,7 +1468,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1630">
+  <cellStyleXfs count="1656">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3095,6 +3103,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3108,7 +3142,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1630">
+  <cellStyles count="1656">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3926,6 +3960,19 @@
     <cellStyle name="超链接" xfId="1624" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1626" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1654" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4736,6 +4783,19 @@
     <cellStyle name="访问过的超链接" xfId="1625" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1627" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1655" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5185,10 +5245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7119,29 +7179,40 @@
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B176" s="1">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B177" s="1">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="20" customHeight="1">
+      <c r="A178" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B178" s="1">
+        <v>677</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="1580" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4280" yWindow="2260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1330,6 +1330,14 @@
   </si>
   <si>
     <t>theGCIdAlreadyBindedByCurrentUser</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApnId已经设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApnIdAlreadySeted</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5245,10 +5253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7215,6 +7223,17 @@
         <v>354</v>
       </c>
     </row>
+    <row r="179" spans="1:3" ht="20" customHeight="1">
+      <c r="A179" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B179" s="1">
+        <v>678</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="2260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="8500" yWindow="3860" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1338,6 +1338,14 @@
   </si>
   <si>
     <t>ApnIdAlreadySeted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theSoldierIsLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此士兵还处于锁定状态</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1476,7 +1484,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1656">
+  <cellStyleXfs count="1660">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3137,6 +3145,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3150,7 +3162,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1656">
+  <cellStyles count="1660">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3981,6 +3993,8 @@
     <cellStyle name="超链接" xfId="1650" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1652" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1658" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4804,6 +4818,8 @@
     <cellStyle name="访问过的超链接" xfId="1651" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1653" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1659" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5253,10 +5269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5685,1552 +5701,1563 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B40" s="3">
         <v>539</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3">
         <v>540</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="3">
         <v>541</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B43" s="3">
         <v>542</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" s="3">
         <v>543</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="3">
         <v>544</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B46" s="3">
         <v>545</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="3">
         <v>546</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B48" s="3">
         <v>547</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B49" s="3">
         <v>548</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="3">
         <v>549</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B51" s="3">
         <v>550</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3">
         <v>551</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53" s="3">
         <v>552</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3">
         <v>553</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="3">
         <v>554</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="3">
         <v>555</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="3">
         <v>556</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B58" s="3">
         <v>557</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" s="3">
         <v>558</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B60" s="3">
         <v>559</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" s="3">
         <v>560</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B62" s="3">
         <v>561</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="1">
+        <v>123</v>
+      </c>
+      <c r="B63" s="3">
         <v>562</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="1">
+        <v>125</v>
+      </c>
+      <c r="B64" s="3">
         <v>563</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="1">
+        <v>127</v>
+      </c>
+      <c r="B65" s="3">
         <v>564</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="1">
+        <v>129</v>
+      </c>
+      <c r="B66" s="3">
         <v>565</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="1">
+        <v>131</v>
+      </c>
+      <c r="B67" s="3">
         <v>566</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="1">
+        <v>133</v>
+      </c>
+      <c r="B68" s="3">
         <v>567</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="1">
+        <v>135</v>
+      </c>
+      <c r="B69" s="3">
         <v>568</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="1">
+        <v>137</v>
+      </c>
+      <c r="B70" s="3">
         <v>569</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" s="1">
+        <v>139</v>
+      </c>
+      <c r="B71" s="3">
         <v>570</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="1">
+        <v>141</v>
+      </c>
+      <c r="B72" s="3">
         <v>571</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" s="1">
+        <v>143</v>
+      </c>
+      <c r="B73" s="3">
         <v>572</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="1">
+        <v>145</v>
+      </c>
+      <c r="B74" s="3">
         <v>573</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="1">
+        <v>147</v>
+      </c>
+      <c r="B75" s="3">
         <v>574</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" s="1">
+        <v>149</v>
+      </c>
+      <c r="B76" s="3">
         <v>575</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="1">
+        <v>151</v>
+      </c>
+      <c r="B77" s="3">
         <v>576</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="1">
+        <v>153</v>
+      </c>
+      <c r="B78" s="3">
         <v>577</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="1">
+        <v>155</v>
+      </c>
+      <c r="B79" s="3">
         <v>578</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="1">
+        <v>157</v>
+      </c>
+      <c r="B80" s="3">
         <v>579</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="1">
+        <v>159</v>
+      </c>
+      <c r="B81" s="3">
         <v>580</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="1">
+        <v>161</v>
+      </c>
+      <c r="B82" s="3">
         <v>581</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B83" s="1">
+        <v>166</v>
+      </c>
+      <c r="B83" s="3">
         <v>582</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B84" s="1">
+        <v>165</v>
+      </c>
+      <c r="B84" s="3">
         <v>583</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" s="1">
+        <v>168</v>
+      </c>
+      <c r="B85" s="3">
         <v>584</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B86" s="1">
+        <v>170</v>
+      </c>
+      <c r="B86" s="3">
         <v>585</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" s="1">
+        <v>172</v>
+      </c>
+      <c r="B87" s="3">
         <v>586</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="1">
+        <v>174</v>
+      </c>
+      <c r="B88" s="3">
         <v>587</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B89" s="1">
+        <v>176</v>
+      </c>
+      <c r="B89" s="3">
         <v>588</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B90" s="1">
+        <v>178</v>
+      </c>
+      <c r="B90" s="3">
         <v>589</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B91" s="1">
+        <v>180</v>
+      </c>
+      <c r="B91" s="3">
         <v>590</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B92" s="1">
+        <v>182</v>
+      </c>
+      <c r="B92" s="3">
         <v>591</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B93" s="1">
+        <v>184</v>
+      </c>
+      <c r="B93" s="3">
         <v>592</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B94" s="1">
+        <v>186</v>
+      </c>
+      <c r="B94" s="3">
         <v>593</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B95" s="1">
+        <v>188</v>
+      </c>
+      <c r="B95" s="3">
         <v>594</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B96" s="1">
+        <v>190</v>
+      </c>
+      <c r="B96" s="3">
         <v>595</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B97" s="1">
+        <v>192</v>
+      </c>
+      <c r="B97" s="3">
         <v>596</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B98" s="1">
+        <v>194</v>
+      </c>
+      <c r="B98" s="3">
         <v>597</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B99" s="1">
+        <v>196</v>
+      </c>
+      <c r="B99" s="3">
         <v>598</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B100" s="1">
+        <v>198</v>
+      </c>
+      <c r="B100" s="3">
         <v>599</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B101" s="1">
+        <v>200</v>
+      </c>
+      <c r="B101" s="3">
         <v>600</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B102" s="1">
+        <v>202</v>
+      </c>
+      <c r="B102" s="3">
         <v>601</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B103" s="1">
+        <v>204</v>
+      </c>
+      <c r="B103" s="3">
         <v>602</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B104" s="1">
+        <v>206</v>
+      </c>
+      <c r="B104" s="3">
         <v>603</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B105" s="1">
+        <v>208</v>
+      </c>
+      <c r="B105" s="3">
         <v>604</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B106" s="1">
+        <v>210</v>
+      </c>
+      <c r="B106" s="3">
         <v>605</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B107" s="1">
+        <v>213</v>
+      </c>
+      <c r="B107" s="3">
         <v>606</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B108" s="1">
+        <v>214</v>
+      </c>
+      <c r="B108" s="3">
         <v>607</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B109" s="1">
+        <v>216</v>
+      </c>
+      <c r="B109" s="3">
         <v>608</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B110" s="1">
+        <v>218</v>
+      </c>
+      <c r="B110" s="3">
         <v>609</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B111" s="1">
+        <v>220</v>
+      </c>
+      <c r="B111" s="3">
         <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B112" s="1">
+        <v>222</v>
+      </c>
+      <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B113" s="1">
+        <v>227</v>
+      </c>
+      <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" s="1">
+        <v>225</v>
+      </c>
+      <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B115" s="1">
+        <v>226</v>
+      </c>
+      <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B116" s="1">
+        <v>230</v>
+      </c>
+      <c r="B116" s="3">
         <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B117" s="1">
+        <v>232</v>
+      </c>
+      <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B118" s="1">
+        <v>234</v>
+      </c>
+      <c r="B118" s="3">
         <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B119" s="1">
+        <v>235</v>
+      </c>
+      <c r="B119" s="3">
         <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B120" s="1">
+        <v>238</v>
+      </c>
+      <c r="B120" s="3">
         <v>619</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B121" s="1">
+        <v>240</v>
+      </c>
+      <c r="B121" s="3">
         <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B122" s="1">
+        <v>242</v>
+      </c>
+      <c r="B122" s="3">
         <v>621</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B123" s="1">
+        <v>244</v>
+      </c>
+      <c r="B123" s="3">
         <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B124" s="1">
+        <v>246</v>
+      </c>
+      <c r="B124" s="3">
         <v>623</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B125" s="1">
+        <v>248</v>
+      </c>
+      <c r="B125" s="3">
         <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B126" s="1">
+        <v>250</v>
+      </c>
+      <c r="B126" s="3">
         <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B127" s="1">
+        <v>252</v>
+      </c>
+      <c r="B127" s="3">
         <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B128" s="1">
+        <v>256</v>
+      </c>
+      <c r="B128" s="3">
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B129" s="1">
+        <v>257</v>
+      </c>
+      <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B130" s="1">
+        <v>258</v>
+      </c>
+      <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B131" s="1">
+        <v>259</v>
+      </c>
+      <c r="B131" s="3">
         <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B132" s="1">
+        <v>262</v>
+      </c>
+      <c r="B132" s="3">
         <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B133" s="1">
+        <v>264</v>
+      </c>
+      <c r="B133" s="3">
         <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B134" s="1">
+        <v>266</v>
+      </c>
+      <c r="B134" s="3">
         <v>633</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B135" s="1">
+        <v>268</v>
+      </c>
+      <c r="B135" s="3">
         <v>634</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B136" s="1">
+        <v>270</v>
+      </c>
+      <c r="B136" s="3">
         <v>635</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B137" s="1">
+        <v>272</v>
+      </c>
+      <c r="B137" s="3">
         <v>636</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B138" s="1">
+        <v>274</v>
+      </c>
+      <c r="B138" s="3">
         <v>637</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B139" s="1">
+        <v>276</v>
+      </c>
+      <c r="B139" s="3">
         <v>638</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B140" s="1">
+        <v>278</v>
+      </c>
+      <c r="B140" s="3">
         <v>639</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B141" s="1">
+        <v>280</v>
+      </c>
+      <c r="B141" s="3">
         <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B142" s="1">
+        <v>282</v>
+      </c>
+      <c r="B142" s="3">
         <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B143" s="1">
+        <v>283</v>
+      </c>
+      <c r="B143" s="3">
         <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B144" s="1">
+        <v>286</v>
+      </c>
+      <c r="B144" s="3">
         <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B145" s="1">
+        <v>288</v>
+      </c>
+      <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B146" s="1">
+        <v>290</v>
+      </c>
+      <c r="B146" s="3">
         <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B147" s="1">
+        <v>292</v>
+      </c>
+      <c r="B147" s="3">
         <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B148" s="1">
+        <v>293</v>
+      </c>
+      <c r="B148" s="3">
         <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B149" s="1">
+        <v>296</v>
+      </c>
+      <c r="B149" s="3">
         <v>648</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B150" s="1">
+        <v>298</v>
+      </c>
+      <c r="B150" s="3">
         <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B151" s="1">
+        <v>300</v>
+      </c>
+      <c r="B151" s="3">
         <v>650</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B152" s="1">
+        <v>302</v>
+      </c>
+      <c r="B152" s="3">
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B153" s="1">
+        <v>304</v>
+      </c>
+      <c r="B153" s="3">
         <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B154" s="1">
+        <v>306</v>
+      </c>
+      <c r="B154" s="3">
         <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B155" s="1">
+        <v>308</v>
+      </c>
+      <c r="B155" s="3">
         <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B156" s="1">
+        <v>309</v>
+      </c>
+      <c r="B156" s="3">
         <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B157" s="1">
+        <v>312</v>
+      </c>
+      <c r="B157" s="3">
         <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B158" s="1">
+        <v>314</v>
+      </c>
+      <c r="B158" s="3">
         <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B159" s="1">
+        <v>316</v>
+      </c>
+      <c r="B159" s="3">
         <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B160" s="1">
+        <v>318</v>
+      </c>
+      <c r="B160" s="3">
         <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B161" s="1">
+        <v>320</v>
+      </c>
+      <c r="B161" s="3">
         <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B162" s="1">
+        <v>322</v>
+      </c>
+      <c r="B162" s="3">
         <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B163" s="1">
+        <v>324</v>
+      </c>
+      <c r="B163" s="3">
         <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B164" s="1">
+        <v>326</v>
+      </c>
+      <c r="B164" s="3">
         <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B165" s="1">
+        <v>328</v>
+      </c>
+      <c r="B165" s="3">
         <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B166" s="1">
+        <v>330</v>
+      </c>
+      <c r="B166" s="3">
         <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B167" s="1">
+        <v>332</v>
+      </c>
+      <c r="B167" s="3">
         <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B168" s="1">
+        <v>334</v>
+      </c>
+      <c r="B168" s="3">
         <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B169" s="1">
+        <v>336</v>
+      </c>
+      <c r="B169" s="3">
         <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B170" s="1">
+        <v>338</v>
+      </c>
+      <c r="B170" s="3">
         <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B171" s="1">
+        <v>340</v>
+      </c>
+      <c r="B171" s="3">
         <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B172" s="1">
+        <v>342</v>
+      </c>
+      <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B173" s="1">
+        <v>344</v>
+      </c>
+      <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B174" s="1">
+        <v>346</v>
+      </c>
+      <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B175" s="1">
+        <v>348</v>
+      </c>
+      <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B176" s="1">
+        <v>349</v>
+      </c>
+      <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B177" s="1">
+        <v>355</v>
+      </c>
+      <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B178" s="1">
+        <v>353</v>
+      </c>
+      <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="3">
+        <v>678</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="20" customHeight="1">
+      <c r="A180" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B179" s="1">
-        <v>678</v>
-      </c>
-      <c r="C179" s="1" t="s">
+      <c r="B180" s="3">
+        <v>679</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>357</v>
       </c>
     </row>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="3860" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5840" yWindow="1900" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1346,6 +1346,22 @@
   </si>
   <si>
     <t>此士兵还处于锁定状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAP服务器通讯出错</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAP服务器关闭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>netErrorWithIapServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iapServerNotAvailable</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1484,7 +1500,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1660">
+  <cellStyleXfs count="1664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3149,6 +3165,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3162,7 +3182,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1660">
+  <cellStyles count="1664">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3995,6 +4015,8 @@
     <cellStyle name="超链接" xfId="1654" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1656" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1662" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4820,6 +4842,8 @@
     <cellStyle name="访问过的超链接" xfId="1655" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1657" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1663" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5269,10 +5293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106:B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6548,716 +6572,738 @@
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>230</v>
+        <v>363</v>
       </c>
       <c r="B116" s="3">
         <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>229</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B118" s="3">
         <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B119" s="3">
         <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B120" s="3">
         <v>619</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B121" s="3">
         <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B122" s="3">
         <v>621</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B123" s="3">
         <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B124" s="3">
         <v>623</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B125" s="3">
         <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B126" s="3">
         <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B127" s="3">
         <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B128" s="3">
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B131" s="3">
         <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B132" s="3">
         <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B133" s="3">
         <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B134" s="3">
         <v>633</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B135" s="3">
         <v>634</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B136" s="3">
         <v>635</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B137" s="3">
         <v>636</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B138" s="3">
         <v>637</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B139" s="3">
         <v>638</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B140" s="3">
         <v>639</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B141" s="3">
         <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B142" s="3">
         <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B143" s="3">
         <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B144" s="3">
         <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B146" s="3">
         <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B147" s="3">
         <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B148" s="3">
         <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B149" s="3">
         <v>648</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B150" s="3">
         <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B151" s="3">
         <v>650</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B152" s="3">
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B153" s="3">
         <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B154" s="3">
         <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B155" s="3">
         <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B156" s="3">
         <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B157" s="3">
         <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B158" s="3">
         <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B159" s="3">
         <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B160" s="3">
         <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B161" s="3">
         <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B162" s="3">
         <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B163" s="3">
         <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B164" s="3">
         <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B165" s="3">
         <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B166" s="3">
         <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B167" s="3">
         <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B168" s="3">
         <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B169" s="3">
         <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="20" customHeight="1">
+      <c r="A181" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B181" s="3">
+        <v>680</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="20" customHeight="1">
+      <c r="A182" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B182" s="3">
+        <v>681</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>357</v>
       </c>
     </row>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -307,13 +307,6 @@
   </si>
   <si>
     <t>materialEventNotExistOrIsMakeing</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>已有士兵正在被招募</t>
-  </si>
-  <si>
-    <t>soldiersAreRecruitingNow</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1500,7 +1493,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1664">
+  <cellStyleXfs count="1668">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3169,6 +3162,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3182,7 +3179,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1664">
+  <cellStyles count="1668">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4017,6 +4014,8 @@
     <cellStyle name="超链接" xfId="1658" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1660" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1666" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4844,6 +4843,8 @@
     <cellStyle name="访问过的超链接" xfId="1659" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1661" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1667" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5293,10 +5294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106:B182"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5483,7 +5484,7 @@
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="3">
         <v>516</v>
@@ -5725,13 +5726,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -5758,24 +5759,24 @@
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="3">
         <v>541</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="3">
         <v>542</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
@@ -5791,24 +5792,24 @@
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="3">
         <v>544</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="3">
         <v>545</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
@@ -5956,7 +5957,7 @@
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B60" s="3">
         <v>559</v>
@@ -5967,13 +5968,13 @@
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="3">
         <v>560</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
@@ -5984,7 +5985,7 @@
         <v>561</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
@@ -6198,35 +6199,35 @@
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B82" s="3">
         <v>581</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B83" s="3">
         <v>582</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B84" s="3">
         <v>583</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1">
@@ -6462,7 +6463,7 @@
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B106" s="3">
         <v>605</v>
@@ -6473,13 +6474,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B107" s="3">
         <v>606</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -6490,7 +6491,7 @@
         <v>607</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
@@ -6528,7 +6529,7 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
@@ -6539,57 +6540,57 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>226</v>
+        <v>361</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>228</v>
+        <v>359</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B116" s="3">
         <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>362</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
@@ -6616,24 +6617,24 @@
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B120" s="3">
         <v>619</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B121" s="3">
         <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
@@ -6715,7 +6716,7 @@
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
@@ -6726,46 +6727,46 @@
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B131" s="3">
         <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B132" s="3">
         <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B133" s="3">
         <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
@@ -6880,24 +6881,24 @@
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B144" s="3">
         <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
@@ -6935,24 +6936,24 @@
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B149" s="3">
         <v>648</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B150" s="3">
         <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
@@ -7023,24 +7024,24 @@
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B157" s="3">
         <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B158" s="3">
         <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
@@ -7243,29 +7244,29 @@
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
@@ -7276,7 +7277,7 @@
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
@@ -7293,18 +7294,7 @@
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="20" customHeight="1">
-      <c r="A182" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B182" s="3">
-        <v>681</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="1900" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6100" yWindow="2300" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -343,14 +343,6 @@
   </si>
   <si>
     <t>soldierNotExistOrCountNotLegal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldierTreatEventExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵治疗事件已存在</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5294,10 +5286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B181"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5484,7 +5476,7 @@
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B17" s="3">
         <v>516</v>
@@ -5726,13 +5718,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -5792,13 +5784,13 @@
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="3">
         <v>544</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
@@ -5946,7 +5938,7 @@
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B59" s="3">
         <v>558</v>
@@ -5957,13 +5949,13 @@
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="3">
         <v>559</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
@@ -5974,7 +5966,7 @@
         <v>560</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
@@ -6188,35 +6180,35 @@
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B81" s="3">
         <v>580</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B82" s="3">
         <v>581</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B83" s="3">
         <v>582</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1">
@@ -6452,7 +6444,7 @@
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B105" s="3">
         <v>604</v>
@@ -6463,13 +6455,13 @@
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B106" s="3">
         <v>605</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
@@ -6480,7 +6472,7 @@
         <v>606</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -6518,7 +6510,7 @@
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
@@ -6529,57 +6521,57 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>224</v>
+        <v>359</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>226</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>362</v>
+        <v>226</v>
       </c>
       <c r="B116" s="3">
         <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>360</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
@@ -6606,24 +6598,24 @@
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B119" s="3">
         <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B120" s="3">
         <v>619</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
@@ -6705,7 +6697,7 @@
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B128" s="3">
         <v>627</v>
@@ -6716,46 +6708,46 @@
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B131" s="3">
         <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B132" s="3">
         <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
@@ -6870,24 +6862,24 @@
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B143" s="3">
         <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B144" s="3">
         <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
@@ -6925,24 +6917,24 @@
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B148" s="3">
         <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B149" s="3">
         <v>648</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
@@ -7013,24 +7005,24 @@
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B156" s="3">
         <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B157" s="3">
         <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
@@ -7233,29 +7225,29 @@
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
@@ -7266,7 +7258,7 @@
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
@@ -7283,18 +7275,7 @@
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="20" customHeight="1">
-      <c r="A181" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B181" s="3">
-        <v>680</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="2300" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="7840" yWindow="2400" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1347,6 +1347,10 @@
   </si>
   <si>
     <t>iapServerNotAvailable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此联盟建筑不允许移动</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5286,10 +5290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7278,6 +7282,11 @@
         <v>353</v>
       </c>
     </row>
+    <row r="181" spans="1:3" ht="20" customHeight="1">
+      <c r="C181" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="2400" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="8820" yWindow="2900" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="362">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1048,14 +1048,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>onlyAllianceDecorateBuildingCanBeDistroy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>只能拆除联盟装饰物</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此联盟事件已经激活</t>
   </si>
   <si>
@@ -1351,6 +1343,14 @@
   </si>
   <si>
     <t>此联盟建筑不允许移动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingNotAllowMove</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingCanNotMoveToTargetPoint</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1489,7 +1489,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1668">
+  <cellStyleXfs count="1684">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3162,6 +3162,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3175,7 +3191,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1668">
+  <cellStyles count="1684">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4012,6 +4028,14 @@
     <cellStyle name="超链接" xfId="1662" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1664" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1682" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4841,6 +4865,14 @@
     <cellStyle name="访问过的超链接" xfId="1663" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1665" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1683" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5292,8 +5324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5722,13 +5754,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6547,24 +6579,24 @@
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
@@ -6866,13 +6898,13 @@
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B143" s="3">
         <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
@@ -6910,24 +6942,24 @@
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B147" s="3">
         <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B148" s="3">
         <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
@@ -6998,24 +7030,24 @@
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B155" s="3">
         <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B156" s="3">
         <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
@@ -7218,29 +7250,29 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
@@ -7251,7 +7283,7 @@
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
@@ -7268,23 +7300,29 @@
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
+      <c r="A181" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B181" s="3">
+        <v>680</v>
+      </c>
       <c r="C181" s="1" t="s">
-        <v>361</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1320" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4460" yWindow="720" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -1263,111 +1263,109 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>账号GameCenter账号已经绑定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>userAlreadyBindGCAId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByOtherUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此GameCenter账号未被其他玩家绑定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>当前玩家还未绑定GameCenter账号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theUserDoNotBindGCId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此GameCenter账号已绑定当前玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCIdIsNotBindedByOtherUser</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCIdAlreadyBindedByCurrentUser</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApnId已经设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApnIdAlreadySeted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theSoldierIsLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此士兵还处于锁定状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAP服务器通讯出错</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAP服务器关闭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>netErrorWithIapServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iapServerNotAvailable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此联盟建筑不允许移动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingNotAllowMove</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingCanNotMoveToTargetPoint</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能切换到相同的服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotSwitchToTheSameServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAlreadyBindGCAId</t>
+  </si>
+  <si>
+    <t>theGCIdAlreadyBindedByOtherPlayer</t>
+  </si>
+  <si>
+    <t>玩家GameCenter账号已经绑定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>此GameCenter账号已被其他玩家绑定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前玩家还未绑定GameCenter账号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theUserDoNotBindGCId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>此GameCenter账号已绑定当前玩家</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCIdIsNotBindedByOtherUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByCurrentUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApnId已经设置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApnIdAlreadySeted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theSoldierIsLocked</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>此士兵还处于锁定状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAP服务器通讯出错</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAP服务器关闭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>netErrorWithIapServer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iapServerNotAvailable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>此联盟建筑不允许移动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theAllianceBuildingNotAllowMove</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theAllianceBuildingCanNotMoveToTargetPoint</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品不存在</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>giftNotExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器不存在</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverNotExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能切换到相同的服务器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>canNotSwitchToTheSameServer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5357,8 +5355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5787,13 +5785,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6601,24 +6599,24 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -7261,84 +7259,84 @@
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
@@ -7349,35 +7347,35 @@
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B183" s="3">
         <v>682</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1271,22 +1271,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>theUserDoNotBindGCId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此GameCenter账号已绑定当前玩家</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>theGCIdIsNotBindedByOtherUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByCurrentUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>ApnId已经设置</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1367,6 +1355,15 @@
   <si>
     <t>此GameCenter账号已被其他玩家绑定</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCIdIsNotBindedByOtherPlayer</t>
+  </si>
+  <si>
+    <t>thePlayerDoNotBindGCId</t>
+  </si>
+  <si>
+    <t>theGCIdAlreadyBindedByCurrentPlayer</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1501,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1692">
+  <cellStyleXfs count="1694">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3201,6 +3198,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3214,7 +3213,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1692">
+  <cellStyles count="1694">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4063,6 +4062,7 @@
     <cellStyle name="超链接" xfId="1686" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1688" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1692" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4904,6 +4904,7 @@
     <cellStyle name="访问过的超链接" xfId="1687" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1689" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1693" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5356,7 +5357,7 @@
   <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+      <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5785,13 +5786,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6599,24 +6600,24 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -7259,29 +7260,29 @@
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
@@ -7292,7 +7293,7 @@
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
@@ -7303,40 +7304,40 @@
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
@@ -7347,35 +7348,35 @@
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B183" s="3">
         <v>682</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1364,6 +1364,14 @@
   </si>
   <si>
     <t>theGCIdAlreadyBindedByCurrentPlayer</t>
+  </si>
+  <si>
+    <t>玩家未在当前服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNotInCurrentServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5354,10 +5362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7379,6 +7387,17 @@
         <v>357</v>
       </c>
     </row>
+    <row r="184" spans="1:3" ht="20" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="1">
+        <v>683</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="720" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5400" yWindow="1200" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="366">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -965,13 +965,6 @@
   </si>
   <si>
     <t>playerCancelTheJoinRequestToTheAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>此玩家已被邀请加入我方联盟,请等候其处理</t>
-  </si>
-  <si>
-    <t>inviteRequestAlreadySend</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5362,10 +5355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5794,13 +5787,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6608,24 +6601,24 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -6960,24 +6953,24 @@
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B146" s="3">
         <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
@@ -7048,24 +7041,24 @@
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B153" s="3">
         <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B154" s="3">
         <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
@@ -7257,90 +7250,90 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>350</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
@@ -7351,7 +7344,7 @@
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
@@ -7378,24 +7371,13 @@
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B183" s="3">
         <v>682</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="20" customHeight="1">
-      <c r="A184" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B184" s="1">
-        <v>683</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1364,6 +1364,14 @@
   </si>
   <si>
     <t>playerNotInCurrentServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有事件需要协助加速</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>noEventsNeedTobeSpeedup</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5355,10 +5363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7380,6 +7388,17 @@
         <v>364</v>
       </c>
     </row>
+    <row r="184" spans="1:3" ht="20" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="1">
+        <v>683</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="370">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1372,6 +1372,14 @@
   </si>
   <si>
     <t>noEventsNeedTobeSpeedup</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟人数已达最大</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceMemberCountReachMax</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5363,10 +5371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7399,6 +7407,17 @@
         <v>366</v>
       </c>
     </row>
+    <row r="185" spans="1:3" ht="20" customHeight="1">
+      <c r="A185" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B185" s="1">
+        <v>684</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1200" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4100" yWindow="2660" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="372">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1380,6 +1380,14 @@
   </si>
   <si>
     <t>allianceMemberCountReachMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战即将结束,不能派兵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightWillEndCanNotSendTroops</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5371,10 +5379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7418,6 +7426,17 @@
         <v>368</v>
       </c>
     </row>
+    <row r="186" spans="1:3" ht="20" customHeight="1">
+      <c r="A186" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B186" s="1">
+        <v>685</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1272,10 +1272,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ApnIdAlreadySeted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>theSoldierIsLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1389,6 +1385,9 @@
   <si>
     <t>allianceFightWillEndCanNotSendTroops</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>apnIdAlreadySeted</t>
   </si>
 </sst>
 </file>
@@ -5381,8 +5380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5811,13 +5810,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6625,24 +6624,24 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -7274,29 +7273,29 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
@@ -7307,7 +7306,7 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
@@ -7318,7 +7317,7 @@
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
@@ -7329,7 +7328,7 @@
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
@@ -7340,18 +7339,18 @@
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
@@ -7362,79 +7361,79 @@
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B183" s="3">
         <v>682</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B184" s="1">
         <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B185" s="1">
         <v>684</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B186" s="1">
         <v>685</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="1300" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="10300" yWindow="1260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="398">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1486,6 +1486,14 @@
   </si>
   <si>
     <t>hatchConditionNotMatch</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡未解锁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pveSecionIsLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5557,10 +5565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7747,6 +7755,17 @@
         <v>394</v>
       </c>
     </row>
+    <row r="199" spans="1:3" ht="20" customHeight="1">
+      <c r="A199" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B199" s="1">
+        <v>697</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="1260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="9480" yWindow="1840" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="402">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1494,6 +1494,22 @@
   </si>
   <si>
     <t>pveSecionIsLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotGetPvEStarRewardyet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能领取PvE星级奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pve星级奖励已经领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pveStarRewardAlreadyGet</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1632,7 +1648,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1734">
+  <cellStyleXfs count="1748">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3371,6 +3387,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3384,7 +3414,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1734">
+  <cellStyles count="1748">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4254,6 +4284,13 @@
     <cellStyle name="超链接" xfId="1728" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1730" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1746" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5116,6 +5153,13 @@
     <cellStyle name="访问过的超链接" xfId="1729" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1731" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1747" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5565,10 +5609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7766,6 +7810,28 @@
         <v>396</v>
       </c>
     </row>
+    <row r="200" spans="1:3" ht="20" customHeight="1">
+      <c r="A200" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="1">
+        <v>698</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="20" customHeight="1">
+      <c r="A201" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B201" s="1">
+        <v>699</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="1840" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5060" yWindow="3280" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="408">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1510,6 +1510,30 @@
   </si>
   <si>
     <t>pveStarRewardAlreadyGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前关卡已达最大战斗次数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentSectionReachMaxFightCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家体力值不足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerStaminaNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前PvE关卡还不能被扫荡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPvESectionCanNotBeSweepedYet</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1648,7 +1672,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1748">
+  <cellStyleXfs count="1766">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3401,6 +3425,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3414,7 +3456,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1748">
+  <cellStyles count="1766">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4291,6 +4333,15 @@
     <cellStyle name="超链接" xfId="1742" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1744" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1764" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5160,6 +5211,15 @@
     <cellStyle name="访问过的超链接" xfId="1743" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1745" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1765" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5609,10 +5669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7832,6 +7892,39 @@
         <v>400</v>
       </c>
     </row>
+    <row r="202" spans="1:3" ht="20" customHeight="1">
+      <c r="A202" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B202" s="1">
+        <v>700</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="20" customHeight="1">
+      <c r="A203" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B203" s="1">
+        <v>700</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="20" customHeight="1">
+      <c r="A204" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B204" s="1">
+        <v>701</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="300" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="4400" yWindow="460" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="416">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1558,6 +1558,14 @@
   </si>
   <si>
     <t>playerIsForbiddenToSpeak</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能观察自己的联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotViewYourOwnAlliance</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1696,7 +1704,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1776">
+  <cellStyleXfs count="1778">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3477,6 +3485,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3490,7 +3500,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1776">
+  <cellStyles count="1778">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4381,6 +4391,7 @@
     <cellStyle name="超链接" xfId="1770" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1772" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1776" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5264,6 +5275,7 @@
     <cellStyle name="访问过的超链接" xfId="1771" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1773" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1777" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5713,10 +5725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8002,6 +8014,17 @@
         <v>412</v>
       </c>
     </row>
+    <row r="208" spans="1:3" ht="20" customHeight="1">
+      <c r="A208" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B208" s="1">
+        <v>706</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="460" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="6560" yWindow="240" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="424">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1566,6 +1566,37 @@
   </si>
   <si>
     <t>canNotViewYourOwnAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有空闲的地图区域</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>noFreeMapArea</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家未观察此地块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNotViewThisMapIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotMoveAllianceRightNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前还不能移动联盟</t>
+  </si>
+  <si>
+    <t>不能移动到目标地块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotMoveToTargetMapIndex</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1704,7 +1735,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1778">
+  <cellStyleXfs count="1792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3487,6 +3518,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3500,7 +3545,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1778">
+  <cellStyles count="1792">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4392,6 +4437,13 @@
     <cellStyle name="超链接" xfId="1772" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1774" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1790" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5276,6 +5328,13 @@
     <cellStyle name="访问过的超链接" xfId="1773" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1775" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1791" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5725,10 +5784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C208"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8025,6 +8084,50 @@
         <v>414</v>
       </c>
     </row>
+    <row r="209" spans="1:3" ht="20" customHeight="1">
+      <c r="A209" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B209" s="1">
+        <v>707</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="20" customHeight="1">
+      <c r="A210" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B210" s="1">
+        <v>708</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="20" customHeight="1">
+      <c r="A211" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" s="1">
+        <v>709</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="20" customHeight="1">
+      <c r="A212" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B212" s="1">
+        <v>710</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1108,9 +1108,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>目标联盟未处于和平期,不能发起复仇</t>
-  </si>
-  <si>
     <t>targetAllianceNotInPeaceStatus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1597,6 +1594,10 @@
   </si>
   <si>
     <t>canNotMoveToTargetMapIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标联盟未处于和平期</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1735,7 +1736,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1792">
+  <cellStyleXfs count="1796">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3532,6 +3533,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3545,7 +3550,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1792">
+  <cellStyles count="1796">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4444,6 +4449,8 @@
     <cellStyle name="超链接" xfId="1786" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1788" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1794" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5335,6 +5342,8 @@
     <cellStyle name="访问过的超链接" xfId="1787" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1789" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1795" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5786,8 +5795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C212"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5809,13 +5818,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -6205,13 +6214,13 @@
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="3">
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -6964,13 +6973,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7019,24 +7028,24 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B113" s="3">
         <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -7470,282 +7479,282 @@
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B153" s="3">
         <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>295</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B154" s="3">
         <v>652</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B155" s="3">
         <v>653</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B156" s="3">
         <v>654</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B157" s="3">
         <v>655</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B158" s="3">
         <v>656</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B159" s="3">
         <v>657</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B160" s="3">
         <v>658</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B161" s="3">
         <v>659</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B162" s="3">
         <v>660</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B163" s="3">
         <v>661</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B164" s="3">
         <v>662</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B165" s="3">
         <v>663</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B166" s="3">
         <v>664</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B167" s="3">
         <v>665</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B168" s="3">
         <v>666</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B169" s="3">
         <v>667</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B170" s="3">
         <v>668</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B171" s="3">
         <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B172" s="3">
         <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B173" s="3">
         <v>671</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B174" s="3">
         <v>672</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B175" s="3">
         <v>673</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B176" s="3">
         <v>674</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B177" s="3">
         <v>675</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B178" s="3">
         <v>676</v>
@@ -7756,376 +7765,376 @@
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B179" s="3">
         <v>677</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B180" s="3">
         <v>678</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B181" s="3">
         <v>679</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B182" s="3">
         <v>680</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B183" s="3">
         <v>681</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B184" s="3">
         <v>682</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B185" s="3">
         <v>683</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B186" s="3">
         <v>684</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B187" s="3">
         <v>685</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B188" s="3">
         <v>686</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B189" s="1">
         <v>687</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B190" s="1">
         <v>688</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B191" s="1">
         <v>689</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B192" s="1">
         <v>690</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B193" s="1">
         <v>691</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B194" s="1">
         <v>692</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B195" s="1">
         <v>693</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B196" s="1">
         <v>694</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B197" s="1">
         <v>695</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B198" s="1">
         <v>696</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B199" s="1">
         <v>697</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B200" s="1">
         <v>698</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B201" s="1">
         <v>699</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B202" s="1">
         <v>700</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B203" s="1">
         <v>701</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B204" s="1">
         <v>702</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B205" s="1">
         <v>703</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B206" s="1">
         <v>704</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B207" s="1">
         <v>705</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B208" s="1">
         <v>706</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B209" s="1">
         <v>707</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B210" s="1">
         <v>708</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B211" s="1">
         <v>709</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B212" s="1">
         <v>710</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="240" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="5260" yWindow="240" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1598,6 +1598,14 @@
   </si>
   <si>
     <t>目标联盟未处于和平期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家将被攻打,不能退出联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5793,10 +5801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8137,6 +8145,17 @@
         <v>421</v>
       </c>
     </row>
+    <row r="213" spans="1:3" ht="20" customHeight="1">
+      <c r="A213" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B213" s="1">
+        <v>711</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="300" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="3940" yWindow="200" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="416">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1558,6 +1558,14 @@
   </si>
   <si>
     <t>playerIsForbiddenToSpeak</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有商品正在出售,不能切换服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>youHaveProductInSellCanNotSwitchServer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5713,10 +5721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+      <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8002,6 +8010,17 @@
         <v>412</v>
       </c>
     </row>
+    <row r="208" spans="1:3" ht="20" customHeight="1">
+      <c r="A208" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B208" s="1">
+        <v>706</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1244,10 +1244,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ApnId已经设置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>theSoldierIsLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1355,9 +1351,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>apnIdAlreadySeted</t>
-  </si>
-  <si>
     <t>服务器繁忙</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1621,6 +1614,14 @@
   </si>
   <si>
     <t>youHaveProductInSellCanNotSwitchServer</t>
+  </si>
+  <si>
+    <t>pushIdAlreadySeted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushId已经设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5833,8 +5834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5856,13 +5857,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -6252,13 +6253,13 @@
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" s="3">
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -7011,13 +7012,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7066,24 +7067,24 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B113" s="3">
         <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -7523,7 +7524,7 @@
         <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
@@ -7715,29 +7716,29 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B171" s="3">
         <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B172" s="3">
         <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B173" s="3">
         <v>671</v>
@@ -7748,7 +7749,7 @@
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B174" s="3">
         <v>672</v>
@@ -7759,7 +7760,7 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B175" s="3">
         <v>673</v>
@@ -7770,29 +7771,29 @@
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="B176" s="3">
         <v>674</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B177" s="3">
         <v>675</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B178" s="3">
         <v>676</v>
@@ -7803,409 +7804,409 @@
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B179" s="3">
         <v>677</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B180" s="3">
         <v>678</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B181" s="3">
         <v>679</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B182" s="3">
         <v>680</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B183" s="3">
         <v>681</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B184" s="3">
         <v>682</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B185" s="3">
         <v>683</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B186" s="3">
         <v>684</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B187" s="3">
         <v>685</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B188" s="3">
         <v>686</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B189" s="1">
         <v>687</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B190" s="1">
         <v>688</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B191" s="1">
         <v>689</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B192" s="1">
         <v>690</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B193" s="1">
         <v>691</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B194" s="1">
         <v>692</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B195" s="1">
         <v>693</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B196" s="1">
         <v>694</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B197" s="1">
         <v>695</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B198" s="1">
         <v>696</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B199" s="1">
         <v>697</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B200" s="1">
         <v>698</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B201" s="1">
         <v>699</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B202" s="1">
         <v>700</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B203" s="1">
         <v>701</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B204" s="1">
         <v>702</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B205" s="1">
         <v>703</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B206" s="1">
         <v>704</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B207" s="1">
         <v>705</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B208" s="1">
         <v>706</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B209" s="1">
         <v>707</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B210" s="1">
         <v>708</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B211" s="1">
         <v>709</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B212" s="1">
         <v>710</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B213" s="1">
         <v>711</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="20" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B214" s="1">
         <v>712</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="20" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B215" s="1">
         <v>713</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="120" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="3160" yWindow="500" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -1304,12 +1304,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>playerAlreadyBindGCAId</t>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByOtherPlayer</t>
-  </si>
-  <si>
     <t>玩家GameCenter账号已经绑定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1318,9 +1312,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>theGCIdIsNotBindedByOtherPlayer</t>
-  </si>
-  <si>
     <t>thePlayerDoNotBindGCId</t>
   </si>
   <si>
@@ -1621,6 +1612,18 @@
   </si>
   <si>
     <t>pushId已经设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAlreadyBindGC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCAlreadyBindedByOtherPlayer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCIsNotBindedByOtherPlayer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5834,8 +5837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5857,13 +5860,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -7012,13 +7015,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7524,7 +7527,7 @@
         <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
@@ -7716,29 +7719,29 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
       <c r="B171" s="3">
         <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
       <c r="B172" s="3">
         <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="B173" s="3">
         <v>671</v>
@@ -7749,7 +7752,7 @@
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B174" s="3">
         <v>672</v>
@@ -7760,7 +7763,7 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B175" s="3">
         <v>673</v>
@@ -7771,13 +7774,13 @@
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B176" s="3">
         <v>674</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
@@ -7837,376 +7840,376 @@
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B182" s="3">
         <v>680</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B183" s="3">
         <v>681</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B184" s="3">
         <v>682</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B185" s="3">
         <v>683</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B186" s="3">
         <v>684</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B187" s="3">
         <v>685</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B188" s="3">
         <v>686</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B189" s="1">
         <v>687</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B190" s="1">
         <v>688</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B191" s="1">
         <v>689</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B192" s="1">
         <v>690</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B193" s="1">
         <v>691</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B194" s="1">
         <v>692</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B195" s="1">
         <v>693</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B196" s="1">
         <v>694</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B197" s="1">
         <v>695</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B198" s="1">
         <v>696</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B199" s="1">
         <v>697</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B200" s="1">
         <v>698</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B201" s="1">
         <v>699</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B202" s="1">
         <v>700</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B203" s="1">
         <v>701</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B204" s="1">
         <v>702</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B205" s="1">
         <v>703</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B206" s="1">
         <v>704</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B207" s="1">
         <v>705</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B208" s="1">
         <v>706</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B209" s="1">
         <v>707</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B210" s="1">
         <v>708</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B211" s="1">
         <v>709</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B212" s="1">
         <v>710</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B213" s="1">
         <v>711</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="20" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B214" s="1">
         <v>712</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="20" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B215" s="1">
         <v>713</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="500" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="3400" yWindow="280" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1232,14 +1232,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>此GameCenter账号未被其他玩家绑定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前玩家还未绑定GameCenter账号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此GameCenter账号已绑定当前玩家</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1312,12 +1304,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>thePlayerDoNotBindGCId</t>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByCurrentPlayer</t>
-  </si>
-  <si>
     <t>玩家未在当前服务器</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1623,7 +1609,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>theGCIsNotBindedByOtherPlayer</t>
+    <t>theGCAlreadyBindedByCurrentPlayer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1762,7 +1748,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1804">
+  <cellStyleXfs count="1808">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3571,6 +3557,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3584,7 +3574,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1804">
+  <cellStyles count="1808">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4489,6 +4479,8 @@
     <cellStyle name="超链接" xfId="1798" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1800" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1806" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5386,6 +5378,8 @@
     <cellStyle name="访问过的超链接" xfId="1799" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1801" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1807" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5835,10 +5829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5860,13 +5854,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -6256,13 +6250,13 @@
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B38" s="3">
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -7015,13 +7009,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7070,24 +7064,24 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B113" s="3">
         <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -7527,7 +7521,7 @@
         <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
@@ -7719,32 +7713,32 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B171" s="3">
         <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B172" s="3">
         <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B173" s="3">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>330</v>
@@ -7752,90 +7746,90 @@
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="B174" s="3">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>331</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="B175" s="3">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>425</v>
+        <v>339</v>
       </c>
       <c r="B176" s="3">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>426</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B177" s="3">
+        <v>677</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B177" s="3">
-        <v>675</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B178" s="3">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>179</v>
+        <v>342</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B179" s="3">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B180" s="3">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B181" s="3">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
@@ -7843,7 +7837,7 @@
         <v>353</v>
       </c>
       <c r="B182" s="3">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>352</v>
@@ -7854,7 +7848,7 @@
         <v>355</v>
       </c>
       <c r="B183" s="3">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>354</v>
@@ -7865,7 +7859,7 @@
         <v>357</v>
       </c>
       <c r="B184" s="3">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>356</v>
@@ -7873,32 +7867,32 @@
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B185" s="3">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B186" s="3">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B187" s="3">
-        <v>685</v>
+        <v>366</v>
+      </c>
+      <c r="B187" s="1">
+        <v>687</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>364</v>
@@ -7908,19 +7902,19 @@
       <c r="A188" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B188" s="3">
-        <v>686</v>
+      <c r="B188" s="1">
+        <v>688</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B189" s="1">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>368</v>
@@ -7931,32 +7925,32 @@
         <v>371</v>
       </c>
       <c r="B190" s="1">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B191" s="1">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B192" s="1">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
@@ -7964,7 +7958,7 @@
         <v>379</v>
       </c>
       <c r="B193" s="1">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>378</v>
@@ -7975,7 +7969,7 @@
         <v>381</v>
       </c>
       <c r="B194" s="1">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>380</v>
@@ -7986,7 +7980,7 @@
         <v>383</v>
       </c>
       <c r="B195" s="1">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>382</v>
@@ -7997,7 +7991,7 @@
         <v>385</v>
       </c>
       <c r="B196" s="1">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>384</v>
@@ -8008,7 +8002,7 @@
         <v>387</v>
       </c>
       <c r="B197" s="1">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>386</v>
@@ -8016,13 +8010,13 @@
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B198" s="1">
+        <v>698</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B198" s="1">
-        <v>696</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
@@ -8030,7 +8024,7 @@
         <v>391</v>
       </c>
       <c r="B199" s="1">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>390</v>
@@ -8038,13 +8032,13 @@
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B200" s="1">
+        <v>700</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B200" s="1">
-        <v>698</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
@@ -8052,7 +8046,7 @@
         <v>395</v>
       </c>
       <c r="B201" s="1">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>394</v>
@@ -8063,7 +8057,7 @@
         <v>397</v>
       </c>
       <c r="B202" s="1">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>396</v>
@@ -8074,7 +8068,7 @@
         <v>399</v>
       </c>
       <c r="B203" s="1">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>398</v>
@@ -8085,7 +8079,7 @@
         <v>401</v>
       </c>
       <c r="B204" s="1">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>400</v>
@@ -8096,7 +8090,7 @@
         <v>403</v>
       </c>
       <c r="B205" s="1">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>402</v>
@@ -8107,7 +8101,7 @@
         <v>405</v>
       </c>
       <c r="B206" s="1">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>404</v>
@@ -8118,7 +8112,7 @@
         <v>407</v>
       </c>
       <c r="B207" s="1">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>406</v>
@@ -8129,7 +8123,7 @@
         <v>409</v>
       </c>
       <c r="B208" s="1">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>408</v>
@@ -8137,13 +8131,13 @@
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B209" s="1">
+        <v>709</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B209" s="1">
-        <v>707</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
@@ -8151,7 +8145,7 @@
         <v>413</v>
       </c>
       <c r="B210" s="1">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>412</v>
@@ -8159,10 +8153,10 @@
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B211" s="1">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>415</v>
@@ -8170,46 +8164,24 @@
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212" s="1">
+        <v>712</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B212" s="1">
-        <v>710</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B213" s="1">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="20" customHeight="1">
-      <c r="A214" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B214" s="1">
-        <v>712</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="20" customHeight="1">
-      <c r="A215" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B215" s="1">
-        <v>713</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="280" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="3320" yWindow="440" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1610,6 +1610,14 @@
   </si>
   <si>
     <t>theGCAlreadyBindedByCurrentPlayer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家还未绑定GC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNotBindGC</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5829,10 +5837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8184,6 +8192,17 @@
         <v>418</v>
       </c>
     </row>
+    <row r="214" spans="1:3" ht="20" customHeight="1">
+      <c r="A214" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" s="1">
+        <v>714</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1248,15 +1248,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>IAP服务器关闭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>netErrorWithIapServer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iapServerNotAvailable</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5837,10 +5829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5862,13 +5854,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -7017,13 +7009,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7072,7 +7064,7 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
@@ -7083,695 +7075,695 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="B113" s="3">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>334</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B114" s="3">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B115" s="3">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B116" s="3">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B117" s="3">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B118" s="3">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B119" s="3">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B120" s="3">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B121" s="3">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B122" s="3">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B123" s="3">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B124" s="3">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B125" s="3">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B126" s="3">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B127" s="3">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B128" s="3">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B129" s="3">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B130" s="3">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B131" s="3">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B132" s="3">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B133" s="3">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B134" s="3">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B135" s="3">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B136" s="3">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B137" s="3">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B138" s="3">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B139" s="3">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B140" s="3">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B141" s="3">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B142" s="3">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B143" s="3">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B144" s="3">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B145" s="3">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B146" s="3">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B147" s="3">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B148" s="3">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B149" s="3">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B150" s="3">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B151" s="3">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B152" s="3">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>294</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B153" s="3">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>414</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B154" s="3">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B155" s="3">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B156" s="3">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B157" s="3">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B158" s="3">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B159" s="3">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B160" s="3">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B161" s="3">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B162" s="3">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B163" s="3">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B164" s="3">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B165" s="3">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B166" s="3">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B167" s="3">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B168" s="3">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B169" s="3">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="B170" s="3">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B171" s="3">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B172" s="3">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B173" s="3">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>330</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>421</v>
+        <v>336</v>
       </c>
       <c r="B174" s="3">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B175" s="3">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>337</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
@@ -7779,10 +7771,10 @@
         <v>339</v>
       </c>
       <c r="B176" s="3">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
@@ -7790,7 +7782,7 @@
         <v>341</v>
       </c>
       <c r="B177" s="3">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>340</v>
@@ -7801,7 +7793,7 @@
         <v>343</v>
       </c>
       <c r="B178" s="3">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>342</v>
@@ -7809,13 +7801,13 @@
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B179" s="3">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
@@ -7823,7 +7815,7 @@
         <v>349</v>
       </c>
       <c r="B180" s="3">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>348</v>
@@ -7834,7 +7826,7 @@
         <v>351</v>
       </c>
       <c r="B181" s="3">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>350</v>
@@ -7845,7 +7837,7 @@
         <v>353</v>
       </c>
       <c r="B182" s="3">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>352</v>
@@ -7856,7 +7848,7 @@
         <v>355</v>
       </c>
       <c r="B183" s="3">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>354</v>
@@ -7864,13 +7856,13 @@
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B184" s="3">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
@@ -7878,7 +7870,7 @@
         <v>361</v>
       </c>
       <c r="B185" s="3">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>360</v>
@@ -7886,10 +7878,10 @@
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B186" s="3">
-        <v>686</v>
+        <v>364</v>
+      </c>
+      <c r="B186" s="1">
+        <v>687</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>362</v>
@@ -7897,13 +7889,13 @@
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B187" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
@@ -7911,10 +7903,10 @@
         <v>367</v>
       </c>
       <c r="B188" s="1">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
@@ -7922,7 +7914,7 @@
         <v>369</v>
       </c>
       <c r="B189" s="1">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>368</v>
@@ -7930,13 +7922,13 @@
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B190" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
@@ -7944,7 +7936,7 @@
         <v>375</v>
       </c>
       <c r="B191" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>374</v>
@@ -7955,7 +7947,7 @@
         <v>377</v>
       </c>
       <c r="B192" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>376</v>
@@ -7966,7 +7958,7 @@
         <v>379</v>
       </c>
       <c r="B193" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>378</v>
@@ -7977,7 +7969,7 @@
         <v>381</v>
       </c>
       <c r="B194" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>380</v>
@@ -7988,7 +7980,7 @@
         <v>383</v>
       </c>
       <c r="B195" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>382</v>
@@ -7999,7 +7991,7 @@
         <v>385</v>
       </c>
       <c r="B196" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>384</v>
@@ -8007,24 +7999,24 @@
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" s="1">
+        <v>698</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B197" s="1">
-        <v>697</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" s="1">
+        <v>699</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B198" s="1">
-        <v>698</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
@@ -8032,7 +8024,7 @@
         <v>391</v>
       </c>
       <c r="B199" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>390</v>
@@ -8043,7 +8035,7 @@
         <v>393</v>
       </c>
       <c r="B200" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>392</v>
@@ -8054,7 +8046,7 @@
         <v>395</v>
       </c>
       <c r="B201" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>394</v>
@@ -8065,7 +8057,7 @@
         <v>397</v>
       </c>
       <c r="B202" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>396</v>
@@ -8076,7 +8068,7 @@
         <v>399</v>
       </c>
       <c r="B203" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>398</v>
@@ -8087,7 +8079,7 @@
         <v>401</v>
       </c>
       <c r="B204" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>400</v>
@@ -8098,7 +8090,7 @@
         <v>403</v>
       </c>
       <c r="B205" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>402</v>
@@ -8109,7 +8101,7 @@
         <v>405</v>
       </c>
       <c r="B206" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>404</v>
@@ -8120,7 +8112,7 @@
         <v>407</v>
       </c>
       <c r="B207" s="1">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>406</v>
@@ -8128,43 +8120,43 @@
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B208" s="1">
+        <v>709</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B208" s="1">
-        <v>708</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B209" s="1">
+        <v>710</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B209" s="1">
-        <v>709</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B210" s="1">
+        <v>711</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B210" s="1">
-        <v>710</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B211" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>415</v>
@@ -8172,35 +8164,24 @@
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B212" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B213" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="20" customHeight="1">
-      <c r="A214" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B214" s="1">
-        <v>714</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="440" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="8460" yWindow="1780" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1610,6 +1610,14 @@
   </si>
   <si>
     <t>playerNotBindGC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能迁移到选定的服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotSwitchToTheSelectedServer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5829,10 +5837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8184,6 +8192,17 @@
         <v>424</v>
       </c>
     </row>
+    <row r="214" spans="1:3" ht="20" customHeight="1">
+      <c r="A214" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" s="1">
+        <v>715</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1780" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="620" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1618,6 +1618,14 @@
   </si>
   <si>
     <t>canNotSwitchToTheSelectedServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有龙驻防在城墙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>alreadyHasDefenceDragon</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1808">
+  <cellStyleXfs count="1824">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3569,6 +3577,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3582,7 +3606,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1808">
+  <cellStyles count="1824">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4489,6 +4513,14 @@
     <cellStyle name="超链接" xfId="1802" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1804" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1822" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5388,6 +5420,14 @@
     <cellStyle name="访问过的超链接" xfId="1803" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1805" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1823" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5837,10 +5877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8203,6 +8243,17 @@
         <v>426</v>
       </c>
     </row>
+    <row r="215" spans="1:3" ht="20" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B215" s="3">
+        <v>567</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -5880,7 +5880,7 @@
   <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8248,7 +8248,7 @@
         <v>429</v>
       </c>
       <c r="B215" s="3">
-        <v>567</v>
+        <v>716</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>428</v>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="1980" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1626,6 +1626,14 @@
   </si>
   <si>
     <t>alreadyHasDefenceDragon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要宝石加速</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>doNotNeedGemSpeedup</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5877,10 +5885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8254,6 +8262,17 @@
         <v>428</v>
       </c>
     </row>
+    <row r="216" spans="1:3" ht="20" customHeight="1">
+      <c r="A216" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216" s="1">
+        <v>717</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1533,14 +1533,6 @@
   </si>
   <si>
     <t>noFreeMapArea</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家未观察此地块</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>playerNotViewThisMapIndex</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5885,10 +5877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7566,7 +7558,7 @@
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
@@ -7758,7 +7750,7 @@
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
@@ -7769,7 +7761,7 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
@@ -7780,7 +7772,7 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B172" s="3">
         <v>673</v>
@@ -7791,13 +7783,13 @@
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B173" s="3">
         <v>674</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
@@ -8165,43 +8157,43 @@
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207" s="1">
+        <v>709</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B207" s="1">
-        <v>708</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" s="1">
+        <v>710</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B208" s="1">
-        <v>709</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" s="1">
+        <v>711</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B209" s="1">
-        <v>710</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B210" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>413</v>
@@ -8209,24 +8201,24 @@
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B211" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B212" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
@@ -8234,7 +8226,7 @@
         <v>425</v>
       </c>
       <c r="B213" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>424</v>
@@ -8244,8 +8236,8 @@
       <c r="A214" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="1">
-        <v>715</v>
+      <c r="B214" s="3">
+        <v>716</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>426</v>
@@ -8255,22 +8247,11 @@
       <c r="A215" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B215" s="3">
-        <v>716</v>
+      <c r="B215" s="1">
+        <v>717</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="20" customHeight="1">
-      <c r="A216" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B216" s="1">
-        <v>717</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1381,14 +1381,6 @@
   </si>
   <si>
     <t>firstJoinAllianceRewardAlreadyGeted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手引导已经完成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fteAlreadyFinished</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5877,10 +5869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5902,13 +5894,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -7558,7 +7550,7 @@
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
@@ -7750,7 +7742,7 @@
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
@@ -7761,7 +7753,7 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
@@ -7772,7 +7764,7 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B172" s="3">
         <v>673</v>
@@ -7783,13 +7775,13 @@
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B173" s="3">
         <v>674</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
@@ -7959,13 +7951,13 @@
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B189" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
@@ -7973,7 +7965,7 @@
         <v>373</v>
       </c>
       <c r="B190" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>372</v>
@@ -7984,7 +7976,7 @@
         <v>375</v>
       </c>
       <c r="B191" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>374</v>
@@ -7995,7 +7987,7 @@
         <v>377</v>
       </c>
       <c r="B192" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>376</v>
@@ -8006,7 +7998,7 @@
         <v>379</v>
       </c>
       <c r="B193" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>378</v>
@@ -8017,7 +8009,7 @@
         <v>381</v>
       </c>
       <c r="B194" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>380</v>
@@ -8028,7 +8020,7 @@
         <v>383</v>
       </c>
       <c r="B195" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>382</v>
@@ -8036,24 +8028,24 @@
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" s="1">
+        <v>698</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B196" s="1">
-        <v>697</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" s="1">
+        <v>699</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B197" s="1">
-        <v>698</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
@@ -8061,7 +8053,7 @@
         <v>389</v>
       </c>
       <c r="B198" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>388</v>
@@ -8072,7 +8064,7 @@
         <v>391</v>
       </c>
       <c r="B199" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>390</v>
@@ -8083,7 +8075,7 @@
         <v>393</v>
       </c>
       <c r="B200" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>392</v>
@@ -8094,7 +8086,7 @@
         <v>395</v>
       </c>
       <c r="B201" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>394</v>
@@ -8105,7 +8097,7 @@
         <v>397</v>
       </c>
       <c r="B202" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>396</v>
@@ -8116,7 +8108,7 @@
         <v>399</v>
       </c>
       <c r="B203" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>398</v>
@@ -8127,7 +8119,7 @@
         <v>401</v>
       </c>
       <c r="B204" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>400</v>
@@ -8138,7 +8130,7 @@
         <v>403</v>
       </c>
       <c r="B205" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>402</v>
@@ -8146,43 +8138,43 @@
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206" s="1">
+        <v>709</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B206" s="1">
-        <v>707</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="1">
+        <v>710</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B207" s="1">
-        <v>709</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B208" s="1">
+        <v>711</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B208" s="1">
-        <v>710</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B209" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>411</v>
@@ -8190,24 +8182,24 @@
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B210" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B211" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
@@ -8215,7 +8207,7 @@
         <v>423</v>
       </c>
       <c r="B212" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>422</v>
@@ -8225,8 +8217,8 @@
       <c r="A213" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B213" s="1">
-        <v>715</v>
+      <c r="B213" s="3">
+        <v>716</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>424</v>
@@ -8236,22 +8228,11 @@
       <c r="A214" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="3">
-        <v>716</v>
+      <c r="B214" s="1">
+        <v>717</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="20" customHeight="1">
-      <c r="A215" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B215" s="1">
-        <v>717</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="800" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1618,6 +1618,22 @@
   </si>
   <si>
     <t>doNotNeedGemSpeedup</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNameNotLegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家昵称不合法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceNameNotLegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟昵称不合法</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5869,10 +5885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8235,6 +8251,28 @@
         <v>426</v>
       </c>
     </row>
+    <row r="215" spans="1:3" ht="20" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" s="1">
+        <v>718</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="20" customHeight="1">
+      <c r="A216" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" s="1">
+        <v>719</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="-26220" yWindow="2940" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="436">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1634,6 +1634,22 @@
   </si>
   <si>
     <t>联盟昵称不合法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的活动信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalidActivity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可领取的奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>noAvailableRewardsCanGet</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1772,7 +1788,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1824">
+  <cellStyleXfs count="1832">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3601,6 +3617,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3614,7 +3638,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1824">
+  <cellStyles count="1832">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4529,6 +4553,10 @@
     <cellStyle name="超链接" xfId="1818" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1820" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1830" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5436,6 +5464,10 @@
     <cellStyle name="访问过的超链接" xfId="1819" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1821" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1831" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5885,10 +5917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8273,6 +8305,28 @@
         <v>431</v>
       </c>
     </row>
+    <row r="217" spans="1:3" ht="20" customHeight="1">
+      <c r="A217" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B217" s="1">
+        <v>720</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="20" customHeight="1">
+      <c r="A218" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B218" s="1">
+        <v>721</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-26220" yWindow="2940" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4620" yWindow="2780" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="438">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1650,6 +1650,14 @@
   </si>
   <si>
     <t>noAvailableRewardsCanGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotQuitAllianceNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能退出联盟</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5917,10 +5925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8327,6 +8335,17 @@
         <v>434</v>
       </c>
     </row>
+    <row r="219" spans="1:3" ht="20" customHeight="1">
+      <c r="A219" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" s="1">
+        <v>722</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2780" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="1160" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="440">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1658,6 +1658,14 @@
   </si>
   <si>
     <t>还不能退出联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不是墨子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>youAreNotTheMod</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1796,7 +1804,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1832">
+  <cellStyleXfs count="1852">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3633,6 +3641,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3646,7 +3674,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1832">
+  <cellStyles count="1852">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4565,6 +4593,16 @@
     <cellStyle name="超链接" xfId="1826" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1828" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1830" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1832" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1834" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1836" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1838" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1840" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1842" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1844" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1846" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1848" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1850" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5476,6 +5514,16 @@
     <cellStyle name="访问过的超链接" xfId="1827" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1829" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1831" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1833" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1835" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1837" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1839" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1841" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1843" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1845" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1847" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1849" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1851" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5925,10 +5973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="G217" sqref="G217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8346,6 +8394,17 @@
         <v>437</v>
       </c>
     </row>
+    <row r="220" spans="1:3" ht="20" customHeight="1">
+      <c r="A220" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B220" s="1">
+        <v>723</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="442">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1666,6 +1666,14 @@
   </si>
   <si>
     <t>youAreNotTheMod</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的联盟活动信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalidAllianceActivity</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1804,7 +1812,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1852">
+  <cellStyleXfs count="1860">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3661,6 +3669,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3674,7 +3690,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1852">
+  <cellStyles count="1860">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4603,6 +4619,10 @@
     <cellStyle name="超链接" xfId="1846" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1848" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1850" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1852" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1854" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1856" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1858" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5524,6 +5544,10 @@
     <cellStyle name="访问过的超链接" xfId="1847" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1849" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1851" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1853" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1855" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1857" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1859" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5973,10 +5997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="G217" sqref="G217"/>
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8405,6 +8429,17 @@
         <v>438</v>
       </c>
     </row>
+    <row r="221" spans="1:3" ht="20" customHeight="1">
+      <c r="A221" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B221" s="1">
+        <v>724</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="434">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1112,27 +1112,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>玩家已经对目标玩家派出了协防部队</t>
-  </si>
-  <si>
-    <t>playerAlreadySendHelpDefenceTroopToTargetPlayer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标玩家协防部队数量已达最大</t>
-  </si>
-  <si>
-    <t>targetPlayersHelpDefenceTroopsCountReachMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家没有协防部队驻扎在目标玩家城市</t>
-  </si>
-  <si>
-    <t>noHelpDefenceTroopInTargetPlayerCity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>联盟未处于战争期</t>
   </si>
   <si>
@@ -1173,13 +1152,6 @@
   </si>
   <si>
     <t>villageCollectEventNotExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有此玩家的协防部队</t>
-  </si>
-  <si>
-    <t>noHelpDefenceTroopByThePlayer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5997,10 +5969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6022,13 +5994,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -6418,13 +6390,13 @@
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B38" s="3">
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -7177,13 +7149,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7232,13 +7204,13 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
@@ -7678,7 +7650,7 @@
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
@@ -7686,7 +7658,7 @@
         <v>297</v>
       </c>
       <c r="B153" s="3">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>296</v>
@@ -7697,7 +7669,7 @@
         <v>299</v>
       </c>
       <c r="B154" s="3">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>298</v>
@@ -7708,7 +7680,7 @@
         <v>301</v>
       </c>
       <c r="B155" s="3">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>300</v>
@@ -7719,7 +7691,7 @@
         <v>303</v>
       </c>
       <c r="B156" s="3">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>302</v>
@@ -7730,7 +7702,7 @@
         <v>305</v>
       </c>
       <c r="B157" s="3">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>304</v>
@@ -7741,7 +7713,7 @@
         <v>307</v>
       </c>
       <c r="B158" s="3">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>306</v>
@@ -7752,7 +7724,7 @@
         <v>309</v>
       </c>
       <c r="B159" s="3">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>308</v>
@@ -7763,7 +7735,7 @@
         <v>311</v>
       </c>
       <c r="B160" s="3">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>310</v>
@@ -7774,7 +7746,7 @@
         <v>313</v>
       </c>
       <c r="B161" s="3">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>312</v>
@@ -7785,7 +7757,7 @@
         <v>315</v>
       </c>
       <c r="B162" s="3">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>314</v>
@@ -7796,7 +7768,7 @@
         <v>317</v>
       </c>
       <c r="B163" s="3">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>316</v>
@@ -7807,7 +7779,7 @@
         <v>319</v>
       </c>
       <c r="B164" s="3">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>318</v>
@@ -7818,7 +7790,7 @@
         <v>321</v>
       </c>
       <c r="B165" s="3">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>320</v>
@@ -7826,76 +7798,76 @@
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="B166" s="3">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>325</v>
+        <v>410</v>
       </c>
       <c r="B167" s="3">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>327</v>
+        <v>411</v>
       </c>
       <c r="B168" s="3">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="B169" s="3">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="B170" s="3">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="B171" s="3">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>345</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>419</v>
+        <v>331</v>
       </c>
       <c r="B172" s="3">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>330</v>
@@ -7903,68 +7875,68 @@
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="B173" s="3">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B174" s="3">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B175" s="3">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B176" s="3">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B177" s="3">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B178" s="3">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
@@ -7972,7 +7944,7 @@
         <v>347</v>
       </c>
       <c r="B179" s="3">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>346</v>
@@ -7980,54 +7952,54 @@
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B180" s="3">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B181" s="3">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B182" s="3">
-        <v>683</v>
+        <v>356</v>
+      </c>
+      <c r="B182" s="1">
+        <v>687</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" s="1">
+        <v>688</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B183" s="3">
-        <v>684</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B184" s="3">
-        <v>685</v>
+      <c r="B184" s="1">
+        <v>689</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>358</v>
@@ -8035,46 +8007,46 @@
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B185" s="3">
-        <v>686</v>
+        <v>363</v>
+      </c>
+      <c r="B185" s="1">
+        <v>691</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" s="1">
+        <v>692</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B186" s="1">
-        <v>687</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B187" s="1">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B188" s="1">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
@@ -8082,7 +8054,7 @@
         <v>371</v>
       </c>
       <c r="B189" s="1">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>370</v>
@@ -8093,7 +8065,7 @@
         <v>373</v>
       </c>
       <c r="B190" s="1">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>372</v>
@@ -8104,7 +8076,7 @@
         <v>375</v>
       </c>
       <c r="B191" s="1">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>374</v>
@@ -8112,13 +8084,13 @@
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B192" s="1">
+        <v>698</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B192" s="1">
-        <v>694</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
@@ -8126,7 +8098,7 @@
         <v>379</v>
       </c>
       <c r="B193" s="1">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>378</v>
@@ -8137,7 +8109,7 @@
         <v>381</v>
       </c>
       <c r="B194" s="1">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>380</v>
@@ -8148,7 +8120,7 @@
         <v>383</v>
       </c>
       <c r="B195" s="1">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>382</v>
@@ -8156,13 +8128,13 @@
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B196" s="1">
+        <v>702</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B196" s="1">
-        <v>698</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
@@ -8170,7 +8142,7 @@
         <v>387</v>
       </c>
       <c r="B197" s="1">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>386</v>
@@ -8181,7 +8153,7 @@
         <v>389</v>
       </c>
       <c r="B198" s="1">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>388</v>
@@ -8192,7 +8164,7 @@
         <v>391</v>
       </c>
       <c r="B199" s="1">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>390</v>
@@ -8203,7 +8175,7 @@
         <v>393</v>
       </c>
       <c r="B200" s="1">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>392</v>
@@ -8214,7 +8186,7 @@
         <v>395</v>
       </c>
       <c r="B201" s="1">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>394</v>
@@ -8222,13 +8194,13 @@
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B202" s="1">
+        <v>709</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B202" s="1">
-        <v>704</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
@@ -8236,7 +8208,7 @@
         <v>399</v>
       </c>
       <c r="B203" s="1">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>398</v>
@@ -8244,109 +8216,109 @@
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" s="1">
+        <v>711</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B204" s="1">
-        <v>706</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B205" s="1">
+        <v>712</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B205" s="1">
-        <v>707</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B206" s="1">
+        <v>713</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="B206" s="1">
-        <v>709</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B207" s="1">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B208" s="1">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B209" s="1">
-        <v>712</v>
+        <v>417</v>
+      </c>
+      <c r="B209" s="3">
+        <v>716</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B210" s="1">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" s="1">
+        <v>718</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B211" s="1">
-        <v>714</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="1">
+        <v>719</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B212" s="1">
-        <v>715</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B213" s="3">
-        <v>716</v>
+      <c r="B213" s="1">
+        <v>720</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>424</v>
@@ -8357,7 +8329,7 @@
         <v>427</v>
       </c>
       <c r="B214" s="1">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>426</v>
@@ -8368,7 +8340,7 @@
         <v>428</v>
       </c>
       <c r="B215" s="1">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>429</v>
@@ -8376,13 +8348,13 @@
     </row>
     <row r="216" spans="1:3" ht="20" customHeight="1">
       <c r="A216" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216" s="1">
+        <v>723</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B216" s="1">
-        <v>719</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="20" customHeight="1">
@@ -8390,54 +8362,10 @@
         <v>433</v>
       </c>
       <c r="B217" s="1">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="20" customHeight="1">
-      <c r="A218" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B218" s="1">
-        <v>721</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="20" customHeight="1">
-      <c r="A219" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B219" s="1">
-        <v>722</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="20" customHeight="1">
-      <c r="A220" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B220" s="1">
-        <v>723</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="20" customHeight="1">
-      <c r="A221" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B221" s="1">
-        <v>724</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="32180" yWindow="-100" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="442">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1647,6 +1647,30 @@
   <si>
     <t>invalidAllianceActivity</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAlreadySendHelpDefenceTroopToTargetPlayer</t>
+  </si>
+  <si>
+    <t>玩家已经对目标玩家派出了协防部队</t>
+  </si>
+  <si>
+    <t>targetPlayersHelpDefenceTroopsCountReachMax</t>
+  </si>
+  <si>
+    <t>目标玩家协防部队数量已达最大</t>
+  </si>
+  <si>
+    <t>noHelpDefenceTroopInTargetPlayerCity</t>
+  </si>
+  <si>
+    <t>玩家没有协防部队驻扎在目标玩家城市</t>
+  </si>
+  <si>
+    <t>noHelpDefenceTroopByThePlayer</t>
+  </si>
+  <si>
+    <t>没有此玩家的协防部队</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1808,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1860">
+  <cellStyleXfs count="1868">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3649,6 +3673,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3662,7 +3694,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1860">
+  <cellStyles count="1868">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4595,6 +4627,10 @@
     <cellStyle name="超链接" xfId="1854" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1856" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1858" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1860" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1862" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1864" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1866" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5520,6 +5556,10 @@
     <cellStyle name="访问过的超链接" xfId="1855" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1857" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1859" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1861" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1863" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1865" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1867" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5969,10 +6009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7655,716 +7695,760 @@
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>297</v>
+        <v>434</v>
       </c>
       <c r="B153" s="3">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>296</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>299</v>
+        <v>436</v>
       </c>
       <c r="B154" s="3">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>298</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="B155" s="3">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>300</v>
+        <v>439</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B156" s="3">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B157" s="3">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B158" s="3">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B159" s="3">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B160" s="3">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B161" s="3">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>315</v>
+        <v>440</v>
       </c>
       <c r="B162" s="3">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B163" s="3">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B164" s="3">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B165" s="3">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>409</v>
+        <v>315</v>
       </c>
       <c r="B166" s="3">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>410</v>
+        <v>317</v>
       </c>
       <c r="B167" s="3">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="B168" s="3">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>407</v>
+        <v>321</v>
       </c>
       <c r="B169" s="3">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>408</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="B170" s="3">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>329</v>
+        <v>410</v>
       </c>
       <c r="B171" s="3">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>179</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="B172" s="3">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="B173" s="3">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>332</v>
+        <v>408</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B174" s="3">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B175" s="3">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>338</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B176" s="3">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B177" s="3">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B178" s="3">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B179" s="3">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B180" s="3">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B181" s="3">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B182" s="1">
-        <v>687</v>
+        <v>345</v>
+      </c>
+      <c r="B182" s="3">
+        <v>683</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B183" s="1">
-        <v>688</v>
+        <v>347</v>
+      </c>
+      <c r="B183" s="3">
+        <v>684</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B184" s="1">
-        <v>689</v>
+        <v>351</v>
+      </c>
+      <c r="B184" s="3">
+        <v>685</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B185" s="1">
-        <v>691</v>
+        <v>353</v>
+      </c>
+      <c r="B185" s="3">
+        <v>686</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B186" s="1">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B187" s="1">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B188" s="1">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B189" s="1">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B190" s="1">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B191" s="1">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B192" s="1">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B193" s="1">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B194" s="1">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B195" s="1">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B196" s="1">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B197" s="1">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B198" s="1">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B199" s="1">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B200" s="1">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B201" s="1">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B202" s="1">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B203" s="1">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B204" s="1">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B205" s="1">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B206" s="1">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B207" s="1">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B208" s="1">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B209" s="3">
-        <v>716</v>
+        <v>406</v>
+      </c>
+      <c r="B209" s="1">
+        <v>712</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B210" s="1">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B211" s="1">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B212" s="1">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B213" s="1">
-        <v>720</v>
+        <v>417</v>
+      </c>
+      <c r="B213" s="3">
+        <v>716</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="20" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B214" s="1">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="20" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B215" s="1">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="20" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B216" s="1">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="20" customHeight="1">
       <c r="A217" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B217" s="1">
+        <v>720</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="20" customHeight="1">
+      <c r="A218" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B218" s="1">
+        <v>721</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="20" customHeight="1">
+      <c r="A219" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B219" s="1">
+        <v>722</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="20" customHeight="1">
+      <c r="A220" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B220" s="1">
+        <v>723</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="20" customHeight="1">
+      <c r="A221" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B221" s="1">
         <v>724</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>432</v>
       </c>
     </row>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32180" yWindow="-100" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="1300" yWindow="340" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="444">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1671,6 +1671,14 @@
   </si>
   <si>
     <t>没有此玩家的协防部队</t>
+  </si>
+  <si>
+    <t>现在还不能进行协防</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotHelpDefenceNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1808,7 +1816,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1868">
+  <cellStyleXfs count="1876">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3681,6 +3689,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3694,7 +3710,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1868">
+  <cellStyles count="1876">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4631,6 +4647,10 @@
     <cellStyle name="超链接" xfId="1862" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1864" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1866" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1868" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1870" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1872" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1874" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5560,6 +5580,10 @@
     <cellStyle name="访问过的超链接" xfId="1863" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1865" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1867" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1869" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1871" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1873" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1875" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -6009,10 +6033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8452,6 +8476,17 @@
         <v>432</v>
       </c>
     </row>
+    <row r="222" spans="1:3" ht="20" customHeight="1">
+      <c r="A222" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B222" s="1">
+        <v>725</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="340" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="740" yWindow="280" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="446">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1678,6 +1678,14 @@
   </si>
   <si>
     <t>canNotHelpDefenceNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正遭受攻击,不能退出移动城市</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>beAttackedNowCanNotMoveCityNow</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1816,7 +1824,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1876">
+  <cellStyleXfs count="1884">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3697,6 +3705,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3710,7 +3726,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1876">
+  <cellStyles count="1884">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4651,6 +4667,10 @@
     <cellStyle name="超链接" xfId="1870" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1872" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1874" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1876" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1878" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1880" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1882" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5584,6 +5604,10 @@
     <cellStyle name="访问过的超链接" xfId="1871" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1873" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1875" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1877" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1879" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1881" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1883" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -6033,10 +6057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+      <selection activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8487,6 +8511,17 @@
         <v>442</v>
       </c>
     </row>
+    <row r="223" spans="1:3" ht="20" customHeight="1">
+      <c r="A223" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B223" s="1">
+        <v>726</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="280" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="448">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1686,6 +1686,14 @@
   </si>
   <si>
     <t>beAttackedNowCanNotMoveCityNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标已不是墨子,不能回复</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetNotModNowCanNotReply</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1824,7 +1832,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1884">
+  <cellStyleXfs count="1898">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3713,6 +3721,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3726,7 +3748,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1884">
+  <cellStyles count="1898">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4671,6 +4693,13 @@
     <cellStyle name="超链接" xfId="1878" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1880" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1896" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5608,6 +5637,13 @@
     <cellStyle name="访问过的超链接" xfId="1879" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1881" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1897" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -6057,10 +6093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220"/>
+      <selection activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8522,6 +8558,17 @@
         <v>444</v>
       </c>
     </row>
+    <row r="224" spans="1:3" ht="20" customHeight="1">
+      <c r="A224" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B224" s="1">
+        <v>727</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="883"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="450">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1694,6 +1694,14 @@
   </si>
   <si>
     <t>targetNotModNowCanNotReply</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能领取累计充值奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotGetTotalIAPRewardsNow</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1832,7 +1840,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1898">
+  <cellStyleXfs count="1908">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3735,6 +3743,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3748,7 +3766,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1898">
+  <cellStyles count="1908">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4700,6 +4718,11 @@
     <cellStyle name="超链接" xfId="1892" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1894" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1906" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5644,6 +5667,11 @@
     <cellStyle name="访问过的超链接" xfId="1893" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1895" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1907" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -6093,10 +6121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222"/>
+      <selection activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8569,6 +8597,17 @@
         <v>446</v>
       </c>
     </row>
+    <row r="225" spans="1:3" ht="20" customHeight="1">
+      <c r="A225" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B225" s="1">
+        <v>728</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="452">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1702,6 +1702,14 @@
   </si>
   <si>
     <t>canNotGetTotalIAPRewardsNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能领取月卡每日奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotGetMonthcardRewardsNow</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1840,7 +1848,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1908">
+  <cellStyleXfs count="1920">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3753,6 +3761,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3766,7 +3786,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1908">
+  <cellStyles count="1920">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4723,6 +4743,12 @@
     <cellStyle name="超链接" xfId="1902" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1904" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1918" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5672,6 +5698,12 @@
     <cellStyle name="访问过的超链接" xfId="1903" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1905" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1919" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -6121,10 +6153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="D223" sqref="D223"/>
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8608,6 +8640,17 @@
         <v>448</v>
       </c>
     </row>
+    <row r="226" spans="1:3" ht="20" customHeight="1">
+      <c r="A226" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B226" s="1">
+        <v>729</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="454">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1710,6 +1710,14 @@
   </si>
   <si>
     <t>canNotGetMonthcardRewardsNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能使用城防大师</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotUseMasterOfDefenderNow</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6153,10 +6161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="E212" sqref="E212"/>
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8651,6 +8659,17 @@
         <v>450</v>
       </c>
     </row>
+    <row r="227" spans="1:3" ht="20" customHeight="1">
+      <c r="A227" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B227" s="1">
+        <v>730</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Errors.xlsx
+++ b/gameData/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="0" windowWidth="27860" windowHeight="17540" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="456">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1718,6 +1718,13 @@
   </si>
   <si>
     <t>canNotUseMasterOfDefenderNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wallWasBrokenCanNotSendTroopsOut</t>
+  </si>
+  <si>
+    <t>城墙已被攻破,不能出兵</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6161,10 +6168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C227"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8670,6 +8677,17 @@
         <v>452</v>
       </c>
     </row>
+    <row r="228" spans="1:3" ht="20" customHeight="1">
+      <c r="A228" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" s="1">
+        <v>731</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
